--- a/btc.xlsx
+++ b/btc.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1990"/>
+  <dimension ref="A1:L2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76046,22 +76046,22 @@
         <v>29982000</v>
       </c>
       <c r="C1990" t="n">
-        <v>30022000</v>
+        <v>30066000</v>
       </c>
       <c r="D1990" t="n">
         <v>29638000</v>
       </c>
       <c r="E1990" t="n">
-        <v>29819000</v>
+        <v>29769000</v>
       </c>
       <c r="F1990" t="n">
-        <v>1365.88992837</v>
+        <v>2405.78623199</v>
       </c>
       <c r="G1990" t="n">
-        <v>40729826054.65797</v>
+        <v>71803338819.88358</v>
       </c>
       <c r="H1990" t="n">
-        <v>192000</v>
+        <v>214000</v>
       </c>
       <c r="I1990" t="n">
         <v>30205500</v>
@@ -76074,6 +76074,3958 @@
       </c>
       <c r="L1990" t="n">
         <v>34.14994748687402</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="2" t="n">
+        <v>44992.375</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>29769000</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>29978000</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>29250000</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>29579000</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>7624.3543545</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>227062074248.0589</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>364000</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>29983000</v>
+      </c>
+      <c r="J1991" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1991" t="n">
+        <v>35.72712007054125</v>
+      </c>
+      <c r="L1991" t="n">
+        <v>34.14994748687402</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="2" t="n">
+        <v>44993.375</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>29579000</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>29660000</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>29000000</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>29023000</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>5501.29398149</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>161634502890.822</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>330000</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>29943000</v>
+      </c>
+      <c r="J1992" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1992" t="n">
+        <v>35.72712007054125</v>
+      </c>
+      <c r="L1992" t="n">
+        <v>34.14994748687402</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="2" t="n">
+        <v>44994.375</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>29018000</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>29320000</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>27415000</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>27604000</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>9841.87622634</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>280760039643.6113</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>952500</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>29348000</v>
+      </c>
+      <c r="J1993" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1993" t="n">
+        <v>35.72712007054125</v>
+      </c>
+      <c r="L1993" t="n">
+        <v>34.14994748687402</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="2" t="n">
+        <v>44995.375</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>27604000</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>27605000</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>26707000</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>27343000</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>9730.632240250001</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>263312710191.7824</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>449000</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>28556500</v>
+      </c>
+      <c r="J1994" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1994" t="n">
+        <v>35.72712007054125</v>
+      </c>
+      <c r="L1994" t="n">
+        <v>34.14994748687402</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="2" t="n">
+        <v>44996.375</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>27341000</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>28023000</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>26870000</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>27737000</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>6228.73937386</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>171121003248.7401</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>576500</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>27790000</v>
+      </c>
+      <c r="J1995" t="n">
+        <v>0.9980928391507736</v>
+      </c>
+      <c r="K1995" t="n">
+        <v>35.65898270588711</v>
+      </c>
+      <c r="L1995" t="n">
+        <v>34.27553412894655</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="2" t="n">
+        <v>44997.375</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>27722000</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>29300000</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>27167000</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>29199000</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>6122.0855742</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>171678983728.6843</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>1066500</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>28298500</v>
+      </c>
+      <c r="J1996" t="n">
+        <v>1.031821474636465</v>
+      </c>
+      <c r="K1996" t="n">
+        <v>36.79370411962464</v>
+      </c>
+      <c r="L1996" t="n">
+        <v>32.18408470523562</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="2" t="n">
+        <v>44998.375</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>29190000</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>28855000</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>31676000</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>13888.83820988</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>423405493346.776</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>1572500</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>30256500</v>
+      </c>
+      <c r="J1997" t="n">
+        <v>1.046915538809843</v>
+      </c>
+      <c r="K1997" t="n">
+        <v>38.51990057320675</v>
+      </c>
+      <c r="L1997" t="n">
+        <v>29.00246449929911</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="2" t="n">
+        <v>44999.375</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>31676000</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>34469000</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>31579000</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>32490000</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>17872.07887712</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>587877889909.5271</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>1445000</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>33248500</v>
+      </c>
+      <c r="J1998" t="n">
+        <v>0.9771869407642449</v>
+      </c>
+      <c r="K1998" t="n">
+        <v>37.64114379967479</v>
+      </c>
+      <c r="L1998" t="n">
+        <v>30.62213548226922</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="2" t="n">
+        <v>45000.375</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>32491000</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>33500000</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>32511000</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>11093.60434797</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>362915591045.4575</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>750000</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>33936000</v>
+      </c>
+      <c r="J1999" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1999" t="n">
+        <v>37.64114379967479</v>
+      </c>
+      <c r="L1999" t="n">
+        <v>30.62213548226922</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="2" t="n">
+        <v>45001.375</v>
+      </c>
+      <c r="B2000" t="n">
+        <v>32505000</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>33455000</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>32307000</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>33335000</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>6814.43349526</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>224269789230.2731</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>574000</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>33255000</v>
+      </c>
+      <c r="J2000" t="n">
+        <v>1.00240565328522</v>
+      </c>
+      <c r="K2000" t="n">
+        <v>37.73169534091593</v>
+      </c>
+      <c r="L2000" t="n">
+        <v>30.45523639457057</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="2" t="n">
+        <v>45002.375</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>33309000</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>36649000</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>33300000</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>36207000</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>15037.60037165</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>527068991134.9828</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>1674500</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>33883000</v>
+      </c>
+      <c r="J2001" t="n">
+        <v>1.068588967919015</v>
+      </c>
+      <c r="K2001" t="n">
+        <v>40.31967338218408</v>
+      </c>
+      <c r="L2001" t="n">
+        <v>25.68523283470225</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="B2002" t="n">
+        <v>36207000</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>36649000</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>35500000</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>35767000</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>9300.23174069</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>336519633509.6808</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>574500</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>37881500</v>
+      </c>
+      <c r="J2002" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2002" t="n">
+        <v>40.31967338218408</v>
+      </c>
+      <c r="L2002" t="n">
+        <v>25.68523283470225</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="2" t="n">
+        <v>45004.375</v>
+      </c>
+      <c r="B2003" t="n">
+        <v>35760000</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>37526000</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>35657000</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>37233000</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>7991.51626721</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>291635366580.8047</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>934500</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>36334500</v>
+      </c>
+      <c r="J2003" t="n">
+        <v>1.024728563761714</v>
+      </c>
+      <c r="K2003" t="n">
+        <v>41.3167209962669</v>
+      </c>
+      <c r="L2003" t="n">
+        <v>23.84753537641825</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="2" t="n">
+        <v>45005.375</v>
+      </c>
+      <c r="B2004" t="n">
+        <v>37228000</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>37838000</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>36217000</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>37295000</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>10244.52549002</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>380937300370.1099</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>810500</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>38162500</v>
+      </c>
+      <c r="J2004" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2004" t="n">
+        <v>41.3167209962669</v>
+      </c>
+      <c r="L2004" t="n">
+        <v>23.84753537641825</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="2" t="n">
+        <v>45006.375</v>
+      </c>
+      <c r="B2005" t="n">
+        <v>37294000</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>37634000</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>36500000</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>37221000</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>8735.638350409999</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>324509962964.2698</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>567000</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>38104500</v>
+      </c>
+      <c r="J2005" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2005" t="n">
+        <v>41.3167209962669</v>
+      </c>
+      <c r="L2005" t="n">
+        <v>23.84753537641825</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="2" t="n">
+        <v>45007.375</v>
+      </c>
+      <c r="B2006" t="n">
+        <v>37202000</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>38400000</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>35584000</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>36372000</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>10824.6208617</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>401966237352.4203</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>1408000</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>37769000</v>
+      </c>
+      <c r="J2006" t="n">
+        <v>0.9630119939633033</v>
+      </c>
+      <c r="K2006" t="n">
+        <v>39.78849787064047</v>
+      </c>
+      <c r="L2006" t="n">
+        <v>26.66426319762462</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="2" t="n">
+        <v>45008.375</v>
+      </c>
+      <c r="B2007" t="n">
+        <v>36372000</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>37660000</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>35930000</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>37274000</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>7303.53058862</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>267745523158.197</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>865000</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>37780000</v>
+      </c>
+      <c r="J2007" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2007" t="n">
+        <v>39.78849787064047</v>
+      </c>
+      <c r="L2007" t="n">
+        <v>26.66426319762462</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="2" t="n">
+        <v>45009.375</v>
+      </c>
+      <c r="B2008" t="n">
+        <v>37268000</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>37599000</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>36304000</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>36749000</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>6250.39620254</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>232253434843.6531</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>647500</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>38133000</v>
+      </c>
+      <c r="J2008" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2008" t="n">
+        <v>39.78849787064047</v>
+      </c>
+      <c r="L2008" t="n">
+        <v>26.66426319762462</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="2" t="n">
+        <v>45010.375</v>
+      </c>
+      <c r="B2009" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>36969000</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>36510000</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>2977.38039843</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>109275081736.5028</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>229500</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>37397500</v>
+      </c>
+      <c r="J2009" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2009" t="n">
+        <v>39.78849787064047</v>
+      </c>
+      <c r="L2009" t="n">
+        <v>26.66426319762462</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="2" t="n">
+        <v>45011.375</v>
+      </c>
+      <c r="B2010" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>37432000</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>36632000</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>37160000</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>3091.03957658</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>114387729254.3888</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>400000</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>36979500</v>
+      </c>
+      <c r="J2010" t="n">
+        <v>1.004881082762071</v>
+      </c>
+      <c r="K2010" t="n">
+        <v>39.98270882172555</v>
+      </c>
+      <c r="L2010" t="n">
+        <v>26.30630539687478</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="2" t="n">
+        <v>45012.375</v>
+      </c>
+      <c r="B2011" t="n">
+        <v>37156000</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>37282000</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>35444000</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>36110000</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>6840.88977652</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>249875271589.2296</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>919000</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>37556000</v>
+      </c>
+      <c r="J2011" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2011" t="n">
+        <v>39.98270882172555</v>
+      </c>
+      <c r="L2011" t="n">
+        <v>26.30630539687478</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="2" t="n">
+        <v>45013.375</v>
+      </c>
+      <c r="B2012" t="n">
+        <v>36124000</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>36220000</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>35230000</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>36026000</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>5170.6862286</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>184980826507.7558</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>495000</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>37043000</v>
+      </c>
+      <c r="J2012" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2012" t="n">
+        <v>39.98270882172555</v>
+      </c>
+      <c r="L2012" t="n">
+        <v>26.30630539687478</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="2" t="n">
+        <v>45014.375</v>
+      </c>
+      <c r="B2013" t="n">
+        <v>36020000</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>37750000</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>36006000</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>37401000</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>6442.79756739</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>239192644749.0829</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>872000</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>36515000</v>
+      </c>
+      <c r="J2013" t="n">
+        <v>1.02426400109544</v>
+      </c>
+      <c r="K2013" t="n">
+        <v>40.95284931237456</v>
+      </c>
+      <c r="L2013" t="n">
+        <v>24.51820151029752</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="2" t="n">
+        <v>45015.375</v>
+      </c>
+      <c r="B2014" t="n">
+        <v>37402000</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>38424000</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>36800000</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>37157000</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>7063.16532492</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>266205274097.5543</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>812000</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>38274000</v>
+      </c>
+      <c r="J2014" t="n">
+        <v>0.970815697340231</v>
+      </c>
+      <c r="K2014" t="n">
+        <v>39.75766896326231</v>
+      </c>
+      <c r="L2014" t="n">
+        <v>26.72108516272468</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="2" t="n">
+        <v>45016.375</v>
+      </c>
+      <c r="B2015" t="n">
+        <v>37157000</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>37771000</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>36596000</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>37540000</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>5856.70049497</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>218147431537.8283</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>587500</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>37969000</v>
+      </c>
+      <c r="J2015" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2015" t="n">
+        <v>39.75766896326231</v>
+      </c>
+      <c r="L2015" t="n">
+        <v>26.72108516272468</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="B2016" t="n">
+        <v>37540000</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>37950000</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>37449000</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>37585000</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>2923.33995312</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>110077447102.0423</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>250500</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>38127500</v>
+      </c>
+      <c r="J2016" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2016" t="n">
+        <v>39.75766896326231</v>
+      </c>
+      <c r="L2016" t="n">
+        <v>26.72108516272468</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="B2017" t="n">
+        <v>37596000</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>37301000</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>3827.71480818</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>143258083412.218</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>350000</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>37846500</v>
+      </c>
+      <c r="J2017" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2017" t="n">
+        <v>39.75766896326231</v>
+      </c>
+      <c r="L2017" t="n">
+        <v>26.72108516272468</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="2" t="n">
+        <v>45019.375</v>
+      </c>
+      <c r="B2018" t="n">
+        <v>37296000</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>37768000</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>36378000</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>36814000</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>5344.45562792</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>198293264588.4846</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>695000</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>37646000</v>
+      </c>
+      <c r="J2018" t="n">
+        <v>0.9778993784200181</v>
+      </c>
+      <c r="K2018" t="n">
+        <v>38.87899976660306</v>
+      </c>
+      <c r="L2018" t="n">
+        <v>28.34059472933503</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="2" t="n">
+        <v>45020.375</v>
+      </c>
+      <c r="B2019" t="n">
+        <v>36814000</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>37552000</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>36660000</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>37205000</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>3443.09664449</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>127944475381.0066</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>446000</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>37509000</v>
+      </c>
+      <c r="J2019" t="n">
+        <v>0.9918952784665014</v>
+      </c>
+      <c r="K2019" t="n">
+        <v>38.56389629999379</v>
+      </c>
+      <c r="L2019" t="n">
+        <v>28.92137425430989</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="2" t="n">
+        <v>45021.375</v>
+      </c>
+      <c r="B2020" t="n">
+        <v>37207000</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>37804000</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>36948000</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>37139000</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>4804.31754606</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>179846638163.4243</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>428000</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>37653000</v>
+      </c>
+      <c r="J2020" t="n">
+        <v>0.9863490292938145</v>
+      </c>
+      <c r="K2020" t="n">
+        <v>38.0374616812862</v>
+      </c>
+      <c r="L2020" t="n">
+        <v>29.89166649220022</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="2" t="n">
+        <v>45022.375</v>
+      </c>
+      <c r="B2021" t="n">
+        <v>37139000</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>37211000</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>36800000</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>37058000</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>3265.19567389</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>120836048137.6772</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>205500</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>37567000</v>
+      </c>
+      <c r="J2021" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2021" t="n">
+        <v>38.0374616812862</v>
+      </c>
+      <c r="L2021" t="n">
+        <v>29.89166649220022</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="2" t="n">
+        <v>45023.375</v>
+      </c>
+      <c r="B2022" t="n">
+        <v>37058000</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>37200000</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>36890000</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>36993000</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>2191.38552697</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>81178209965.33653</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>155000</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>37263500</v>
+      </c>
+      <c r="J2022" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2022" t="n">
+        <v>38.0374616812862</v>
+      </c>
+      <c r="L2022" t="n">
+        <v>29.89166649220022</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="B2023" t="n">
+        <v>36993000</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>37249000</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>36930000</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>37080000</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>3044.98722943</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>113009710987.6367</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>159500</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>37148000</v>
+      </c>
+      <c r="J2023" t="n">
+        <v>0.9981694842252611</v>
+      </c>
+      <c r="K2023" t="n">
+        <v>37.96783350764758</v>
+      </c>
+      <c r="L2023" t="n">
+        <v>30.0200009026269</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="B2024" t="n">
+        <v>37064000</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>37576000</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>36878000</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>37313000</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>3846.31215562</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>142853508974.9475</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>349000</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>37223500</v>
+      </c>
+      <c r="J2024" t="n">
+        <v>1.002404395073005</v>
+      </c>
+      <c r="K2024" t="n">
+        <v>38.05912317946604</v>
+      </c>
+      <c r="L2024" t="n">
+        <v>29.85174133758828</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="2" t="n">
+        <v>45026.375</v>
+      </c>
+      <c r="B2025" t="n">
+        <v>37331000</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>39183000</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>37255000</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>38985000</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>6752.314109</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>256656019241.7879</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>964000</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>37680000</v>
+      </c>
+      <c r="J2025" t="n">
+        <v>1.034633757961783</v>
+      </c>
+      <c r="K2025" t="n">
+        <v>39.37725363990137</v>
+      </c>
+      <c r="L2025" t="n">
+        <v>27.42224352563373</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="2" t="n">
+        <v>45027.375</v>
+      </c>
+      <c r="B2026" t="n">
+        <v>38981000</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>40260000</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>38903000</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>40004000</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>8105.88458258</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>321712753050.3061</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>678500</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>39945000</v>
+      </c>
+      <c r="J2026" t="n">
+        <v>1.001477030917512</v>
+      </c>
+      <c r="K2026" t="n">
+        <v>39.4354150609742</v>
+      </c>
+      <c r="L2026" t="n">
+        <v>27.31504393539747</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="2" t="n">
+        <v>45028.375</v>
+      </c>
+      <c r="B2027" t="n">
+        <v>40005000</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>40610000</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>39567000</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>39699000</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>10654.2856421</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>426143578387.0856</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>521500</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>40683500</v>
+      </c>
+      <c r="J2027" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2027" t="n">
+        <v>39.4354150609742</v>
+      </c>
+      <c r="L2027" t="n">
+        <v>27.31504393539747</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="2" t="n">
+        <v>45029.375</v>
+      </c>
+      <c r="B2028" t="n">
+        <v>39694000</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>40198000</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>39689000</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>39911000</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>5171.072562</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>206204734897.6959</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>254500</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>40215500</v>
+      </c>
+      <c r="J2028" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2028" t="n">
+        <v>39.4354150609742</v>
+      </c>
+      <c r="L2028" t="n">
+        <v>27.31504393539747</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="2" t="n">
+        <v>45030.375</v>
+      </c>
+      <c r="B2029" t="n">
+        <v>39912000</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>40333000</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>39470000</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>39804000</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>5561.14402059</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>222612318707.2144</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>431500</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>40166500</v>
+      </c>
+      <c r="J2029" t="n">
+        <v>0.9909750662865821</v>
+      </c>
+      <c r="K2029" t="n">
+        <v>39.07951305408778</v>
+      </c>
+      <c r="L2029" t="n">
+        <v>27.9710208458432</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="B2030" t="n">
+        <v>39804000</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>39999000</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>39752000</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>39800000</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>1938.56058099</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>77290046948.21619</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>123500</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>40235500</v>
+      </c>
+      <c r="J2030" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2030" t="n">
+        <v>39.07951305408778</v>
+      </c>
+      <c r="L2030" t="n">
+        <v>27.9710208458432</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="2" t="n">
+        <v>45032.375</v>
+      </c>
+      <c r="B2031" t="n">
+        <v>39800000</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>39981000</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>39600000</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>39607000</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>2393.49528179</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>95129039158.06377</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>190500</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>39923500</v>
+      </c>
+      <c r="J2031" t="n">
+        <v>0.9920723383470889</v>
+      </c>
+      <c r="K2031" t="n">
+        <v>38.76970389703445</v>
+      </c>
+      <c r="L2031" t="n">
+        <v>28.54204222178194</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="2" t="n">
+        <v>45033.375</v>
+      </c>
+      <c r="B2032" t="n">
+        <v>39612000</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>39673000</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>38506000</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>38700000</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>5420.85725888</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>211322564966.8836</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>583500</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>39802500</v>
+      </c>
+      <c r="J2032" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2032" t="n">
+        <v>38.76970389703445</v>
+      </c>
+      <c r="L2032" t="n">
+        <v>28.54204222178194</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="2" t="n">
+        <v>45034.375</v>
+      </c>
+      <c r="B2033" t="n">
+        <v>38700000</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>39847000</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>38251000</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>39630000</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>4976.83151258</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>195160536131.7183</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>798000</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>39283500</v>
+      </c>
+      <c r="J2033" t="n">
+        <v>1.008820497155294</v>
+      </c>
+      <c r="K2033" t="n">
+        <v>39.11167195996985</v>
+      </c>
+      <c r="L2033" t="n">
+        <v>27.91174750847603</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="2" t="n">
+        <v>45035.375</v>
+      </c>
+      <c r="B2034" t="n">
+        <v>39637000</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>39719000</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>38181000</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>38300000</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>6118.4824719</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>238289754029.4149</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>769000</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>40435000</v>
+      </c>
+      <c r="J2034" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2034" t="n">
+        <v>39.11167195996985</v>
+      </c>
+      <c r="L2034" t="n">
+        <v>27.91174750847603</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="2" t="n">
+        <v>45036.375</v>
+      </c>
+      <c r="B2035" t="n">
+        <v>38300000</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>38572000</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>37400000</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>37672000</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>5515.28188385</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>209814128286.9463</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>586000</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>39069000</v>
+      </c>
+      <c r="J2035" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2035" t="n">
+        <v>39.11167195996985</v>
+      </c>
+      <c r="L2035" t="n">
+        <v>27.91174750847603</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="2" t="n">
+        <v>45037.375</v>
+      </c>
+      <c r="B2036" t="n">
+        <v>37672000</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>37779000</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>36108000</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>36337000</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>5934.6195108</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>219819426308.0041</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>835500</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>38258000</v>
+      </c>
+      <c r="J2036" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2036" t="n">
+        <v>39.11167195996985</v>
+      </c>
+      <c r="L2036" t="n">
+        <v>27.91174750847603</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="B2037" t="n">
+        <v>36337000</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>37318000</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>36055000</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>37182000</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>3716.22462639</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>135958058418.5176</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>631500</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>37172500</v>
+      </c>
+      <c r="J2037" t="n">
+        <v>1.000255565270025</v>
+      </c>
+      <c r="K2037" t="n">
+        <v>39.12166754497542</v>
+      </c>
+      <c r="L2037" t="n">
+        <v>27.89332425476241</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="2" t="n">
+        <v>45039.375</v>
+      </c>
+      <c r="B2038" t="n">
+        <v>37182000</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>37198000</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>36524000</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>36802000</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>1942.10468086</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>71532980980.62617</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>337000</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>37813500</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2038" t="n">
+        <v>39.12166754497542</v>
+      </c>
+      <c r="L2038" t="n">
+        <v>27.89332425476241</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="2" t="n">
+        <v>45040.375</v>
+      </c>
+      <c r="B2039" t="n">
+        <v>36802000</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>37297000</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>36200000</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>3663.66031754</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>134682438925.4888</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>548500</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>37139000</v>
+      </c>
+      <c r="J2039" t="n">
+        <v>0.989525835375212</v>
+      </c>
+      <c r="K2039" t="n">
+        <v>38.71190075871313</v>
+      </c>
+      <c r="L2039" t="n">
+        <v>28.64858144706423</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="2" t="n">
+        <v>45041.375</v>
+      </c>
+      <c r="B2040" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>38123000</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>36359000</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>37877000</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>4364.40529023</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>161727492892.9463</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>882000</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>37298500</v>
+      </c>
+      <c r="J2040" t="n">
+        <v>1.015510007104843</v>
+      </c>
+      <c r="K2040" t="n">
+        <v>39.31232261452276</v>
+      </c>
+      <c r="L2040" t="n">
+        <v>27.54192043836755</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="2" t="n">
+        <v>45042.375</v>
+      </c>
+      <c r="B2041" t="n">
+        <v>37877000</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>39850000</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>36749000</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>38017000</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>9856.33566991</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>379352444364.5263</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>1550500</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>38759000</v>
+      </c>
+      <c r="J2041" t="n">
+        <v>0.9808560592378545</v>
+      </c>
+      <c r="K2041" t="n">
+        <v>38.55972983916798</v>
+      </c>
+      <c r="L2041" t="n">
+        <v>28.92905362123427</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="2" t="n">
+        <v>45043.375</v>
+      </c>
+      <c r="B2042" t="n">
+        <v>38020000</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>39730000</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>37959000</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>39258000</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>6531.80659225</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>254468276014.8507</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>885500</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>39570500</v>
+      </c>
+      <c r="J2042" t="n">
+        <v>0.9921027027710037</v>
+      </c>
+      <c r="K2042" t="n">
+        <v>38.25521219155827</v>
+      </c>
+      <c r="L2042" t="n">
+        <v>29.49032200913344</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="2" t="n">
+        <v>45044.375</v>
+      </c>
+      <c r="B2043" t="n">
+        <v>39271000</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>39500000</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>38711000</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>39083000</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>3370.00926689</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>131889232337.9986</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>394500</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>40156500</v>
+      </c>
+      <c r="J2043" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2043" t="n">
+        <v>38.25521219155827</v>
+      </c>
+      <c r="L2043" t="n">
+        <v>29.49032200913344</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="2" t="n">
+        <v>45045.375</v>
+      </c>
+      <c r="B2044" t="n">
+        <v>39083000</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>39247000</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>38800000</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>38965000</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>1753.92555964</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>68531904105.31125</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>223500</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>39477500</v>
+      </c>
+      <c r="J2044" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2044" t="n">
+        <v>38.25521219155827</v>
+      </c>
+      <c r="L2044" t="n">
+        <v>29.49032200913344</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="2" t="n">
+        <v>45046.375</v>
+      </c>
+      <c r="B2045" t="n">
+        <v>38980000</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>39830000</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>38809000</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>39149000</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>3356.94485899</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>131846575612.9945</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>510500</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>39203500</v>
+      </c>
+      <c r="J2045" t="n">
+        <v>0.9986098180009438</v>
+      </c>
+      <c r="K2045" t="n">
+        <v>38.2020304841995</v>
+      </c>
+      <c r="L2045" t="n">
+        <v>29.58834329423559</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="2" t="n">
+        <v>45047.375</v>
+      </c>
+      <c r="B2046" t="n">
+        <v>39149000</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>39303000</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>37372000</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>37769000</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>5466.44445352</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>208928057904.3409</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>965500</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>39659500</v>
+      </c>
+      <c r="J2046" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2046" t="n">
+        <v>38.2020304841995</v>
+      </c>
+      <c r="L2046" t="n">
+        <v>29.58834329423559</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="2" t="n">
+        <v>45048.375</v>
+      </c>
+      <c r="B2047" t="n">
+        <v>37768000</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>38680000</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>37428000</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>38405000</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>4771.65437011</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>181115666950.5752</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>626000</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>38733500</v>
+      </c>
+      <c r="J2047" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2047" t="n">
+        <v>38.2020304841995</v>
+      </c>
+      <c r="L2047" t="n">
+        <v>29.58834329423559</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="2" t="n">
+        <v>45049.375</v>
+      </c>
+      <c r="B2048" t="n">
+        <v>38406000</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>39050000</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>37800000</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>38703000</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>5239.85097463</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>200814215339.2202</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>625000</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>39032000</v>
+      </c>
+      <c r="J2048" t="n">
+        <v>0.991571018651363</v>
+      </c>
+      <c r="K2048" t="n">
+        <v>37.88002628176812</v>
+      </c>
+      <c r="L2048" t="n">
+        <v>30.18184183533511</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="2" t="n">
+        <v>45050.375</v>
+      </c>
+      <c r="B2049" t="n">
+        <v>38733000</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>39112000</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>38423000</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>38580000</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>4027.302864</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>156123459856.3692</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>344500</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>39358000</v>
+      </c>
+      <c r="J2049" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2049" t="n">
+        <v>37.88002628176812</v>
+      </c>
+      <c r="L2049" t="n">
+        <v>30.18184183533511</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" s="2" t="n">
+        <v>45051.375</v>
+      </c>
+      <c r="B2050" t="n">
+        <v>38599000</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>39359000</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>38520000</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>39053000</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>5614.21035517</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>218659451586.8916</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>419500</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>38943500</v>
+      </c>
+      <c r="J2050" t="n">
+        <v>1.002811765763221</v>
+      </c>
+      <c r="K2050" t="n">
+        <v>37.98653604277711</v>
+      </c>
+      <c r="L2050" t="n">
+        <v>29.98552952855654</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" s="2" t="n">
+        <v>45052.375</v>
+      </c>
+      <c r="B2051" t="n">
+        <v>39077000</v>
+      </c>
+      <c r="C2051" t="n">
+        <v>39435000</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>38142000</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>38677000</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>4471.1849355</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>173684144504.7759</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>646500</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>39496500</v>
+      </c>
+      <c r="J2051" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2051" t="n">
+        <v>37.98653604277711</v>
+      </c>
+      <c r="L2051" t="n">
+        <v>29.98552952855654</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" s="2" t="n">
+        <v>45053.375</v>
+      </c>
+      <c r="B2052" t="n">
+        <v>38679000</v>
+      </c>
+      <c r="C2052" t="n">
+        <v>38953000</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>38143000</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>38143000</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>2434.47759959</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>93899192063.5123</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>405000</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>39325500</v>
+      </c>
+      <c r="J2052" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2052" t="n">
+        <v>37.98653604277711</v>
+      </c>
+      <c r="L2052" t="n">
+        <v>29.98552952855654</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" s="2" t="n">
+        <v>45054.375</v>
+      </c>
+      <c r="B2053" t="n">
+        <v>38152000</v>
+      </c>
+      <c r="C2053" t="n">
+        <v>38369000</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>36822000</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>37255000</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>5517.37518721</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>207033692149.7713</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>773500</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>38557000</v>
+      </c>
+      <c r="J2053" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2053" t="n">
+        <v>37.98653604277711</v>
+      </c>
+      <c r="L2053" t="n">
+        <v>29.98552952855654</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" s="2" t="n">
+        <v>45055.375</v>
+      </c>
+      <c r="B2054" t="n">
+        <v>37260000</v>
+      </c>
+      <c r="C2054" t="n">
+        <v>37544000</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>36822000</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>37150000</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>3678.21436045</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>136600430249.8296</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>361000</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>38033500</v>
+      </c>
+      <c r="J2054" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2054" t="n">
+        <v>37.98653604277711</v>
+      </c>
+      <c r="L2054" t="n">
+        <v>29.98552952855654</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" s="2" t="n">
+        <v>45056.375</v>
+      </c>
+      <c r="B2055" t="n">
+        <v>37150000</v>
+      </c>
+      <c r="C2055" t="n">
+        <v>37995000</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>36580000</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>37071000</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>4525.28287987</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>168853647119.2642</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>707500</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>37511000</v>
+      </c>
+      <c r="J2055" t="n">
+        <v>0.9882701074351523</v>
+      </c>
+      <c r="K2055" t="n">
+        <v>37.54095805608462</v>
+      </c>
+      <c r="L2055" t="n">
+        <v>30.80679174517127</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" s="2" t="n">
+        <v>45057.375</v>
+      </c>
+      <c r="B2056" t="n">
+        <v>37072000</v>
+      </c>
+      <c r="C2056" t="n">
+        <v>37232000</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>36260000</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>36411000</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>3570.39137727</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>131340626231.8849</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>486000</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>37779500</v>
+      </c>
+      <c r="J2056" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2056" t="n">
+        <v>37.54095805608462</v>
+      </c>
+      <c r="L2056" t="n">
+        <v>30.80679174517127</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="2" t="n">
+        <v>45058.375</v>
+      </c>
+      <c r="B2057" t="n">
+        <v>36413000</v>
+      </c>
+      <c r="C2057" t="n">
+        <v>36554000</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>35262000</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>36341000</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>5478.83968294</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>196578357782.9867</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>646000</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>36899000</v>
+      </c>
+      <c r="J2057" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2057" t="n">
+        <v>37.54095805608462</v>
+      </c>
+      <c r="L2057" t="n">
+        <v>30.80679174517127</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="B2058" t="n">
+        <v>36341000</v>
+      </c>
+      <c r="C2058" t="n">
+        <v>36662000</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>36143000</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>36374000</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>1868.0954648</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>67979133829.2688</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>259500</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>36987000</v>
+      </c>
+      <c r="J2058" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2058" t="n">
+        <v>37.54095805608462</v>
+      </c>
+      <c r="L2058" t="n">
+        <v>30.80679174517127</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" s="2" t="n">
+        <v>45060.375</v>
+      </c>
+      <c r="B2059" t="n">
+        <v>36382000</v>
+      </c>
+      <c r="C2059" t="n">
+        <v>36800000</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>36193000</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>36415000</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>1639.20833071</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>59726505225.95865</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>303500</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>36641500</v>
+      </c>
+      <c r="J2059" t="n">
+        <v>0.9938184845052741</v>
+      </c>
+      <c r="K2059" t="n">
+        <v>37.30889804217408</v>
+      </c>
+      <c r="L2059" t="n">
+        <v>31.23451063412829</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" s="2" t="n">
+        <v>45061.375</v>
+      </c>
+      <c r="B2060" t="n">
+        <v>36420000</v>
+      </c>
+      <c r="C2060" t="n">
+        <v>37200000</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>36204000</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>36632000</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>2671.26583258</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>98300162815.11125</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>498000</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>36723500</v>
+      </c>
+      <c r="J2060" t="n">
+        <v>0.9975084074230397</v>
+      </c>
+      <c r="K2060" t="n">
+        <v>37.21593946875763</v>
+      </c>
+      <c r="L2060" t="n">
+        <v>31.40584621698333</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" s="2" t="n">
+        <v>45062.375</v>
+      </c>
+      <c r="B2061" t="n">
+        <v>36642000</v>
+      </c>
+      <c r="C2061" t="n">
+        <v>36795000</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>36335000</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>36421000</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>2091.33896506</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>76375961495.13017</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>230000</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>37140000</v>
+      </c>
+      <c r="J2061" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2061" t="n">
+        <v>37.21593946875763</v>
+      </c>
+      <c r="L2061" t="n">
+        <v>31.40584621698333</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" s="2" t="n">
+        <v>45063.375</v>
+      </c>
+      <c r="B2062" t="n">
+        <v>36419000</v>
+      </c>
+      <c r="C2062" t="n">
+        <v>36835000</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>35938000</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>36700000</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>3207.18978344</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>116588369577.0647</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>448500</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>36649000</v>
+      </c>
+      <c r="J2062" t="n">
+        <v>1.001391579579252</v>
+      </c>
+      <c r="K2062" t="n">
+        <v>37.26772841014503</v>
+      </c>
+      <c r="L2062" t="n">
+        <v>31.31039199332283</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" s="2" t="n">
+        <v>45064.375</v>
+      </c>
+      <c r="B2063" t="n">
+        <v>36706000</v>
+      </c>
+      <c r="C2063" t="n">
+        <v>36920000</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>35800000</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>36240000</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>3396.67093837</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>123989138250.6095</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>560000</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>37154500</v>
+      </c>
+      <c r="J2063" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2063" t="n">
+        <v>37.26772841014503</v>
+      </c>
+      <c r="L2063" t="n">
+        <v>31.31039199332283</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" s="2" t="n">
+        <v>45065.375</v>
+      </c>
+      <c r="B2064" t="n">
+        <v>36240000</v>
+      </c>
+      <c r="C2064" t="n">
+        <v>36486000</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>35950000</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>36156000</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>2587.51450694</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>93622400558.22136</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>268000</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>36800000</v>
+      </c>
+      <c r="J2064" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2064" t="n">
+        <v>37.26772841014503</v>
+      </c>
+      <c r="L2064" t="n">
+        <v>31.31039199332283</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" s="2" t="n">
+        <v>45066.375</v>
+      </c>
+      <c r="B2065" t="n">
+        <v>36156000</v>
+      </c>
+      <c r="C2065" t="n">
+        <v>36475000</v>
+      </c>
+      <c r="D2065" t="n">
+        <v>36119000</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>36385000</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>1174.32081928</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>42561799025.2985</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>178000</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>36424000</v>
+      </c>
+      <c r="J2065" t="n">
+        <v>0.9989292773995168</v>
+      </c>
+      <c r="K2065" t="n">
+        <v>37.22782501106761</v>
+      </c>
+      <c r="L2065" t="n">
+        <v>31.38393950903392</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" s="2" t="n">
+        <v>45067.375</v>
+      </c>
+      <c r="B2066" t="n">
+        <v>36404000</v>
+      </c>
+      <c r="C2066" t="n">
+        <v>36618000</v>
+      </c>
+      <c r="D2066" t="n">
+        <v>36048000</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>36051000</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>1573.05946887</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>57153092941.84137</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>285000</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>36582000</v>
+      </c>
+      <c r="J2066" t="n">
+        <v>0.9854846645891422</v>
+      </c>
+      <c r="K2066" t="n">
+        <v>36.68745064441524</v>
+      </c>
+      <c r="L2066" t="n">
+        <v>32.379924641632</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" s="2" t="n">
+        <v>45068.375</v>
+      </c>
+      <c r="B2067" t="n">
+        <v>36057000</v>
+      </c>
+      <c r="C2067" t="n">
+        <v>36200000</v>
+      </c>
+      <c r="D2067" t="n">
+        <v>35709000</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>35947000</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>2597.92192199</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>93326194208.90239</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>245500</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>36342000</v>
+      </c>
+      <c r="J2067" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2067" t="n">
+        <v>36.68745064441524</v>
+      </c>
+      <c r="L2067" t="n">
+        <v>32.379924641632</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" s="2" t="n">
+        <v>45069.375</v>
+      </c>
+      <c r="B2068" t="n">
+        <v>35947000</v>
+      </c>
+      <c r="C2068" t="n">
+        <v>36660000</v>
+      </c>
+      <c r="D2068" t="n">
+        <v>35841000</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>36381000</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>2510.27578792</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>91284785438.44258</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>409500</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>36192500</v>
+      </c>
+      <c r="J2068" t="n">
+        <v>1.00520826138012</v>
+      </c>
+      <c r="K2068" t="n">
+        <v>36.87852847674161</v>
+      </c>
+      <c r="L2068" t="n">
+        <v>32.02774161462219</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" s="2" t="n">
+        <v>45070.375</v>
+      </c>
+      <c r="B2069" t="n">
+        <v>36382000</v>
+      </c>
+      <c r="C2069" t="n">
+        <v>36430000</v>
+      </c>
+      <c r="D2069" t="n">
+        <v>35144000</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>35452000</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>4471.51960065</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>159940843941.853</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>643000</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>36791500</v>
+      </c>
+      <c r="J2069" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2069" t="n">
+        <v>36.87852847674161</v>
+      </c>
+      <c r="L2069" t="n">
+        <v>32.02774161462219</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" s="2" t="n">
+        <v>45071.375</v>
+      </c>
+      <c r="B2070" t="n">
+        <v>35465000</v>
+      </c>
+      <c r="C2070" t="n">
+        <v>35670000</v>
+      </c>
+      <c r="D2070" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>35547000</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>3394.73741865</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>119701229760.2825</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>335000</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>36108000</v>
+      </c>
+      <c r="J2070" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2070" t="n">
+        <v>36.87852847674161</v>
+      </c>
+      <c r="L2070" t="n">
+        <v>32.02774161462219</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" s="2" t="n">
+        <v>45072.375</v>
+      </c>
+      <c r="B2071" t="n">
+        <v>35550000</v>
+      </c>
+      <c r="C2071" t="n">
+        <v>36110000</v>
+      </c>
+      <c r="D2071" t="n">
+        <v>35284000</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>35771000</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>2369.1616222</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>84409771662.48203</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>413000</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>35885000</v>
+      </c>
+      <c r="J2071" t="n">
+        <v>0.9968231851748641</v>
+      </c>
+      <c r="K2071" t="n">
+        <v>36.7613722207475</v>
+      </c>
+      <c r="L2071" t="n">
+        <v>32.24367689275883</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="2" t="n">
+        <v>45073.375</v>
+      </c>
+      <c r="B2072" t="n">
+        <v>35786000</v>
+      </c>
+      <c r="C2072" t="n">
+        <v>35900000</v>
+      </c>
+      <c r="D2072" t="n">
+        <v>35588000</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>35824000</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>1922.45483636</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>68717026294.1557</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>156000</v>
+      </c>
+      <c r="I2072" t="n">
+        <v>36199000</v>
+      </c>
+      <c r="J2072" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2072" t="n">
+        <v>36.7613722207475</v>
+      </c>
+      <c r="L2072" t="n">
+        <v>32.24367689275883</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="2" t="n">
+        <v>45074.375</v>
+      </c>
+      <c r="B2073" t="n">
+        <v>35824000</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>37532000</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>35788000</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>37350000</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>3852.9775285</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>140994739814.5955</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>872000</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>35980000</v>
+      </c>
+      <c r="J2073" t="n">
+        <v>1.038076709282935</v>
+      </c>
+      <c r="K2073" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2073" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="2" t="n">
+        <v>45075.375</v>
+      </c>
+      <c r="B2074" t="n">
+        <v>37360000</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>37883000</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>36802000</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>36992000</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>4032.11292852</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>150323403013.1309</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>540500</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>38232000</v>
+      </c>
+      <c r="J2074" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2074" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2074" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="2" t="n">
+        <v>45076.375</v>
+      </c>
+      <c r="B2075" t="n">
+        <v>36992000</v>
+      </c>
+      <c r="C2075" t="n">
+        <v>37402000</v>
+      </c>
+      <c r="D2075" t="n">
+        <v>36821000</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>36914000</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>3280.20536471</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>121696610670.5086</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>290500</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>37532500</v>
+      </c>
+      <c r="J2075" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2075" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2075" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="2" t="n">
+        <v>45077.375</v>
+      </c>
+      <c r="B2076" t="n">
+        <v>36923000</v>
+      </c>
+      <c r="C2076" t="n">
+        <v>37043000</v>
+      </c>
+      <c r="D2076" t="n">
+        <v>36059000</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>36391000</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>3833.61770267</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>139599376041.7072</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>492000</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>37213500</v>
+      </c>
+      <c r="J2076" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2076" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2076" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="2" t="n">
+        <v>45078.375</v>
+      </c>
+      <c r="B2077" t="n">
+        <v>36391000</v>
+      </c>
+      <c r="C2077" t="n">
+        <v>36509000</v>
+      </c>
+      <c r="D2077" t="n">
+        <v>35715000</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>35823000</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>3403.84008073</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>122585463047.8159</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>397000</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>36883000</v>
+      </c>
+      <c r="J2077" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2077" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2077" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="2" t="n">
+        <v>45079.375</v>
+      </c>
+      <c r="B2078" t="n">
+        <v>35823000</v>
+      </c>
+      <c r="C2078" t="n">
+        <v>36150000</v>
+      </c>
+      <c r="D2078" t="n">
+        <v>35470000</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>36089000</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>3129.38244663</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>112363149210.3191</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>340000</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>36220000</v>
+      </c>
+      <c r="J2078" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2078" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2078" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="2" t="n">
+        <v>45080.375</v>
+      </c>
+      <c r="B2079" t="n">
+        <v>36089000</v>
+      </c>
+      <c r="C2079" t="n">
+        <v>36102000</v>
+      </c>
+      <c r="D2079" t="n">
+        <v>35801000</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>35888000</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>1925.56556117</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>69221217632.57323</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>150500</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>36429000</v>
+      </c>
+      <c r="J2079" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2079" t="n">
+        <v>38.16112430363867</v>
+      </c>
+      <c r="L2079" t="n">
+        <v>29.6637390757238</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="2" t="n">
+        <v>45081.375</v>
+      </c>
+      <c r="B2080" t="n">
+        <v>35888000</v>
+      </c>
+      <c r="C2080" t="n">
+        <v>36146000</v>
+      </c>
+      <c r="D2080" t="n">
+        <v>35820000</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>35865000</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>1679.79054823</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>60341276256.74492</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>163000</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>36038500</v>
+      </c>
+      <c r="J2080" t="n">
+        <v>0.9951857041774769</v>
+      </c>
+      <c r="K2080" t="n">
+        <v>37.97740536232088</v>
+      </c>
+      <c r="L2080" t="n">
+        <v>30.00235864286343</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="2" t="n">
+        <v>45082.375</v>
+      </c>
+      <c r="B2081" t="n">
+        <v>35894000</v>
+      </c>
+      <c r="C2081" t="n">
+        <v>35896000</v>
+      </c>
+      <c r="D2081" t="n">
+        <v>33825000</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>34298000</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>6815.06312451</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>237454293743.4342</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>1035500</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>36057000</v>
+      </c>
+      <c r="J2081" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2081" t="n">
+        <v>37.97740536232088</v>
+      </c>
+      <c r="L2081" t="n">
+        <v>30.00235864286343</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="2" t="n">
+        <v>45083.375</v>
+      </c>
+      <c r="B2082" t="n">
+        <v>34299000</v>
+      </c>
+      <c r="C2082" t="n">
+        <v>35993000</v>
+      </c>
+      <c r="D2082" t="n">
+        <v>33580000</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>35852000</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>5402.99569145</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>186634047625.0436</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>1206500</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>35334500</v>
+      </c>
+      <c r="J2082" t="n">
+        <v>1.014645742829246</v>
+      </c>
+      <c r="K2082" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2082" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="2" t="n">
+        <v>45084.375</v>
+      </c>
+      <c r="B2083" t="n">
+        <v>35855000</v>
+      </c>
+      <c r="C2083" t="n">
+        <v>35993000</v>
+      </c>
+      <c r="D2083" t="n">
+        <v>34797000</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>34952000</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>4520.05491026</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>159664589406.575</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>598000</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>37061500</v>
+      </c>
+      <c r="J2083" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2083" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2083" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="2" t="n">
+        <v>45085.375</v>
+      </c>
+      <c r="B2084" t="n">
+        <v>34953000</v>
+      </c>
+      <c r="C2084" t="n">
+        <v>35416000</v>
+      </c>
+      <c r="D2084" t="n">
+        <v>34802000</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>34996000</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>2370.31995071</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>83003582914.93372</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>307000</v>
+      </c>
+      <c r="I2084" t="n">
+        <v>35551000</v>
+      </c>
+      <c r="J2084" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2084" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2084" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="2" t="n">
+        <v>45086.375</v>
+      </c>
+      <c r="B2085" t="n">
+        <v>34996000</v>
+      </c>
+      <c r="C2085" t="n">
+        <v>35161000</v>
+      </c>
+      <c r="D2085" t="n">
+        <v>34802000</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>34865000</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>2335.69270285</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>81645858994.77078</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>179500</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>35303000</v>
+      </c>
+      <c r="J2085" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2085" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2085" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="2" t="n">
+        <v>45087.375</v>
+      </c>
+      <c r="B2086" t="n">
+        <v>34865000</v>
+      </c>
+      <c r="C2086" t="n">
+        <v>34914000</v>
+      </c>
+      <c r="D2086" t="n">
+        <v>33842000</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>34372000</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>6040.92871542</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>206800529847.8961</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>536000</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>35044500</v>
+      </c>
+      <c r="J2086" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2086" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2086" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="2" t="n">
+        <v>45088.375</v>
+      </c>
+      <c r="B2087" t="n">
+        <v>34370000</v>
+      </c>
+      <c r="C2087" t="n">
+        <v>34639000</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>34016000</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>34345000</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>1754.27310948</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>60157124442.83195</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>311500</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>34906000</v>
+      </c>
+      <c r="J2087" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2087" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2087" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="2" t="n">
+        <v>45089.375</v>
+      </c>
+      <c r="B2088" t="n">
+        <v>34345000</v>
+      </c>
+      <c r="C2088" t="n">
+        <v>34480000</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>33950000</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>34059000</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>2362.40456114</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>80694211076.02605</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>265000</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>34656500</v>
+      </c>
+      <c r="J2088" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2088" t="n">
+        <v>38.53361267457947</v>
+      </c>
+      <c r="L2088" t="n">
+        <v>28.97719118889301</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="2" t="n">
+        <v>45090.375</v>
+      </c>
+      <c r="B2089" t="n">
+        <v>34059000</v>
+      </c>
+      <c r="C2089" t="n">
+        <v>34479000</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>33808000</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>33913000</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>3607.81851265</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>123075339300.3363</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>335500</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>34324000</v>
+      </c>
+      <c r="J2089" t="n">
+        <v>0.9880258711105931</v>
+      </c>
+      <c r="K2089" t="n">
+        <v>38.07220622983957</v>
+      </c>
+      <c r="L2089" t="n">
+        <v>29.8276274556849</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="2" t="n">
+        <v>45091.375</v>
+      </c>
+      <c r="B2090" t="n">
+        <v>33913000</v>
+      </c>
+      <c r="C2090" t="n">
+        <v>34119000</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>32779000</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>33007000</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>4128.49087432</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>138289444374.4248</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>670000</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>34248500</v>
+      </c>
+      <c r="J2090" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2090" t="n">
+        <v>38.07220622983957</v>
+      </c>
+      <c r="L2090" t="n">
+        <v>29.8276274556849</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="2" t="n">
+        <v>45092.375</v>
+      </c>
+      <c r="B2091" t="n">
+        <v>33007000</v>
+      </c>
+      <c r="C2091" t="n">
+        <v>33618000</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>32510000</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>33449000</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>3841.66442528</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>126536496157.6316</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>554000</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>33677000</v>
+      </c>
+      <c r="J2091" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2091" t="n">
+        <v>38.07220622983957</v>
+      </c>
+      <c r="L2091" t="n">
+        <v>29.8276274556849</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="2" t="n">
+        <v>45093.375</v>
+      </c>
+      <c r="B2092" t="n">
+        <v>33449000</v>
+      </c>
+      <c r="C2092" t="n">
+        <v>34758000</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>33121000</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>34501000</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>3402.6450261</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>115189382449.8988</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>818500</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>34003000</v>
+      </c>
+      <c r="J2092" t="n">
+        <v>1.01464576655001</v>
+      </c>
+      <c r="K2092" t="n">
+        <v>38.62980287432566</v>
+      </c>
+      <c r="L2092" t="n">
+        <v>28.7998992691405</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="2" t="n">
+        <v>45094.375</v>
+      </c>
+      <c r="B2093" t="n">
+        <v>34515000</v>
+      </c>
+      <c r="C2093" t="n">
+        <v>35080000</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>34320000</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>34780000</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>2597.63649947</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>90252767869.48199</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>380000</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>35333500</v>
+      </c>
+      <c r="J2093" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2093" t="n">
+        <v>38.62980287432566</v>
+      </c>
+      <c r="L2093" t="n">
+        <v>28.7998992691405</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="2" t="n">
+        <v>45095.375</v>
+      </c>
+      <c r="B2094" t="n">
+        <v>34780000</v>
+      </c>
+      <c r="C2094" t="n">
+        <v>34893000</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>34660000</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>34866000</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>467.24190826</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>16242955410.02969</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>116500</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>35160000</v>
+      </c>
+      <c r="J2094" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2094" t="n">
+        <v>38.62980287432566</v>
+      </c>
+      <c r="L2094" t="n">
+        <v>28.7998992691405</v>
       </c>
     </row>
   </sheetData>

--- a/btc.xlsx
+++ b/btc.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2094"/>
+  <dimension ref="A1:L2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79998,22 +79998,22 @@
         <v>34780000</v>
       </c>
       <c r="C2094" t="n">
-        <v>34893000</v>
+        <v>34942000</v>
       </c>
       <c r="D2094" t="n">
-        <v>34660000</v>
+        <v>34463000</v>
       </c>
       <c r="E2094" t="n">
-        <v>34866000</v>
+        <v>34466000</v>
       </c>
       <c r="F2094" t="n">
-        <v>467.24190826</v>
+        <v>1583.13965073</v>
       </c>
       <c r="G2094" t="n">
-        <v>16242955410.02969</v>
+        <v>54970891902.23803</v>
       </c>
       <c r="H2094" t="n">
-        <v>116500</v>
+        <v>239500</v>
       </c>
       <c r="I2094" t="n">
         <v>35160000</v>
@@ -80026,6 +80026,5060 @@
       </c>
       <c r="L2094" t="n">
         <v>28.7998992691405</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="2" t="n">
+        <v>45096.375</v>
+      </c>
+      <c r="B2095" t="n">
+        <v>34466000</v>
+      </c>
+      <c r="C2095" t="n">
+        <v>35375000</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>34455000</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>35092000</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>2502.20113191</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>87104793340.02122</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>460000</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>34705500</v>
+      </c>
+      <c r="J2095" t="n">
+        <v>1.011136563368918</v>
+      </c>
+      <c r="K2095" t="n">
+        <v>39.06000612196441</v>
+      </c>
+      <c r="L2095" t="n">
+        <v>28.0069748354779</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="2" t="n">
+        <v>45097.375</v>
+      </c>
+      <c r="B2096" t="n">
+        <v>35095000</v>
+      </c>
+      <c r="C2096" t="n">
+        <v>37100000</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>36946000</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>5488.63849039</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>197248294157.9414</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>35555000</v>
+      </c>
+      <c r="J2096" t="n">
+        <v>1.039122486288848</v>
+      </c>
+      <c r="K2096" t="n">
+        <v>40.58813067591329</v>
+      </c>
+      <c r="L2096" t="n">
+        <v>25.19042869558618</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="2" t="n">
+        <v>45098.375</v>
+      </c>
+      <c r="B2097" t="n">
+        <v>36955000</v>
+      </c>
+      <c r="C2097" t="n">
+        <v>40100000</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>36870000</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>39135000</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>10873.38440224</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>418734525316.7651</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>1615000</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>38005000</v>
+      </c>
+      <c r="J2097" t="n">
+        <v>1.029732929877648</v>
+      </c>
+      <c r="K2097" t="n">
+        <v>41.79493471916502</v>
+      </c>
+      <c r="L2097" t="n">
+        <v>22.96612095781517</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="2" t="n">
+        <v>45099.375</v>
+      </c>
+      <c r="B2098" t="n">
+        <v>39135000</v>
+      </c>
+      <c r="C2098" t="n">
+        <v>39861000</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>38901000</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>39125000</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>6599.23054561</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>259990593536.8351</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>480000</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>40750000</v>
+      </c>
+      <c r="J2098" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2098" t="n">
+        <v>41.79493471916502</v>
+      </c>
+      <c r="L2098" t="n">
+        <v>22.96612095781517</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="2" t="n">
+        <v>45100.375</v>
+      </c>
+      <c r="B2099" t="n">
+        <v>39125000</v>
+      </c>
+      <c r="C2099" t="n">
+        <v>41388000</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>39111000</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>40651000</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>8004.81933949</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>322774131614.6476</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>1138500</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>39605000</v>
+      </c>
+      <c r="J2099" t="n">
+        <v>1.026410806716324</v>
+      </c>
+      <c r="K2099" t="n">
+        <v>42.89877266175426</v>
+      </c>
+      <c r="L2099" t="n">
+        <v>20.93159406782336</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="2" t="n">
+        <v>45101.375</v>
+      </c>
+      <c r="B2100" t="n">
+        <v>40651000</v>
+      </c>
+      <c r="C2100" t="n">
+        <v>40931000</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>40383000</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>40659000</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>3933.82560218</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>160034811596.6366</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>274000</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>41789500</v>
+      </c>
+      <c r="J2100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2100" t="n">
+        <v>42.89877266175426</v>
+      </c>
+      <c r="L2100" t="n">
+        <v>20.93159406782336</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="2" t="n">
+        <v>45102.375</v>
+      </c>
+      <c r="B2101" t="n">
+        <v>40659000</v>
+      </c>
+      <c r="C2101" t="n">
+        <v>41399000</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>40197000</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>40352000</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>4478.46628595</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>182726918565.7283</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>601000</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>40933000</v>
+      </c>
+      <c r="J2101" t="n">
+        <v>0.9858060733393594</v>
+      </c>
+      <c r="K2101" t="n">
+        <v>42.28987062876183</v>
+      </c>
+      <c r="L2101" t="n">
+        <v>22.05388522279843</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="2" t="n">
+        <v>45103.375</v>
+      </c>
+      <c r="B2102" t="n">
+        <v>40352000</v>
+      </c>
+      <c r="C2102" t="n">
+        <v>40599000</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>39555000</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>40077000</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>4959.92502999</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>198612849741.0182</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>522000</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>40953000</v>
+      </c>
+      <c r="J2102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2102" t="n">
+        <v>42.28987062876183</v>
+      </c>
+      <c r="L2102" t="n">
+        <v>22.05388522279843</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="2" t="n">
+        <v>45104.375</v>
+      </c>
+      <c r="B2103" t="n">
+        <v>40094000</v>
+      </c>
+      <c r="C2103" t="n">
+        <v>40950000</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>39963000</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>40585000</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>4130.90265871</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>166867348632.3629</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>493500</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>40616000</v>
+      </c>
+      <c r="J2103" t="n">
+        <v>0.9992367539885759</v>
+      </c>
+      <c r="K2103" t="n">
+        <v>42.25759305368079</v>
+      </c>
+      <c r="L2103" t="n">
+        <v>22.11337728400813</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="2" t="n">
+        <v>45105.375</v>
+      </c>
+      <c r="B2104" t="n">
+        <v>40587000</v>
+      </c>
+      <c r="C2104" t="n">
+        <v>40629000</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>39966000</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>40020000</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>2988.75782373</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>120211163983.3609</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>331500</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>41080500</v>
+      </c>
+      <c r="J2104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2104" t="n">
+        <v>42.25759305368079</v>
+      </c>
+      <c r="L2104" t="n">
+        <v>22.11337728400813</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="2" t="n">
+        <v>45106.375</v>
+      </c>
+      <c r="B2105" t="n">
+        <v>40017000</v>
+      </c>
+      <c r="C2105" t="n">
+        <v>41048000</v>
+      </c>
+      <c r="D2105" t="n">
+        <v>39997000</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>40583000</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>3490.48826462</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>141777245742.6427</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>525500</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>40348500</v>
+      </c>
+      <c r="J2105" t="n">
+        <v>1.005811864133735</v>
+      </c>
+      <c r="K2105" t="n">
+        <v>42.50318844312743</v>
+      </c>
+      <c r="L2105" t="n">
+        <v>21.66071081494732</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="2" t="n">
+        <v>45107.375</v>
+      </c>
+      <c r="B2106" t="n">
+        <v>40583000</v>
+      </c>
+      <c r="C2106" t="n">
+        <v>41569000</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>39500000</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>40547000</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>8585.543862050001</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>348868924510.84</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>1034500</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>41108500</v>
+      </c>
+      <c r="J2106" t="n">
+        <v>0.9863410243623582</v>
+      </c>
+      <c r="K2106" t="n">
+        <v>41.92263842766066</v>
+      </c>
+      <c r="L2106" t="n">
+        <v>22.73074525739613</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="2" t="n">
+        <v>45108.375</v>
+      </c>
+      <c r="B2107" t="n">
+        <v>40547000</v>
+      </c>
+      <c r="C2107" t="n">
+        <v>40877000</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>40391000</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>40691000</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>2709.93708765</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>110148710237.6679</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>243000</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>41581500</v>
+      </c>
+      <c r="J2107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2107" t="n">
+        <v>41.92263842766066</v>
+      </c>
+      <c r="L2107" t="n">
+        <v>22.73074525739613</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="2" t="n">
+        <v>45109.375</v>
+      </c>
+      <c r="B2108" t="n">
+        <v>40712000</v>
+      </c>
+      <c r="C2108" t="n">
+        <v>40875000</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>40250000</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>40652000</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>2235.26869848</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>90738583549.27074</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>312500</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>40955000</v>
+      </c>
+      <c r="J2108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2108" t="n">
+        <v>41.92263842766066</v>
+      </c>
+      <c r="L2108" t="n">
+        <v>22.73074525739613</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="2" t="n">
+        <v>45110.375</v>
+      </c>
+      <c r="B2109" t="n">
+        <v>40652000</v>
+      </c>
+      <c r="C2109" t="n">
+        <v>41377000</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>40470000</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>41200000</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>3276.85791261</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>133826565121.0244</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>453500</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>40964500</v>
+      </c>
+      <c r="J2109" t="n">
+        <v>1.005748880127916</v>
+      </c>
+      <c r="K2109" t="n">
+        <v>42.16364665062722</v>
+      </c>
+      <c r="L2109" t="n">
+        <v>22.28653357430754</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="2" t="n">
+        <v>45111.375</v>
+      </c>
+      <c r="B2110" t="n">
+        <v>41200000</v>
+      </c>
+      <c r="C2110" t="n">
+        <v>41388000</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>40540000</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>40610000</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>3230.33213385</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>132297295113.1266</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>424000</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>41653500</v>
+      </c>
+      <c r="J2110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2110" t="n">
+        <v>42.16364665062722</v>
+      </c>
+      <c r="L2110" t="n">
+        <v>22.28653357430754</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="2" t="n">
+        <v>45112.375</v>
+      </c>
+      <c r="B2111" t="n">
+        <v>40610000</v>
+      </c>
+      <c r="C2111" t="n">
+        <v>40775000</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>39801000</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>40385000</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>3595.75188599</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>144846374468.0306</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>487000</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>41034000</v>
+      </c>
+      <c r="J2111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2111" t="n">
+        <v>42.16364665062722</v>
+      </c>
+      <c r="L2111" t="n">
+        <v>22.28653357430754</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="2" t="n">
+        <v>45113.375</v>
+      </c>
+      <c r="B2112" t="n">
+        <v>40385000</v>
+      </c>
+      <c r="C2112" t="n">
+        <v>41500000</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>39838000</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>39860000</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>5759.5913</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>233754843596.7873</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>831000</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>40872000</v>
+      </c>
+      <c r="J2112" t="n">
+        <v>0.9752397729496967</v>
+      </c>
+      <c r="K2112" t="n">
+        <v>41.11966518628893</v>
+      </c>
+      <c r="L2112" t="n">
+        <v>24.21073664787382</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="2" t="n">
+        <v>45114.375</v>
+      </c>
+      <c r="B2113" t="n">
+        <v>39864000</v>
+      </c>
+      <c r="C2113" t="n">
+        <v>40330000</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>39676000</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>40240000</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>2687.61579838</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>107607256181.2231</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>327000</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>40695000</v>
+      </c>
+      <c r="J2113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2113" t="n">
+        <v>41.11966518628893</v>
+      </c>
+      <c r="L2113" t="n">
+        <v>24.21073664787382</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="2" t="n">
+        <v>45115.375</v>
+      </c>
+      <c r="B2114" t="n">
+        <v>40241000</v>
+      </c>
+      <c r="C2114" t="n">
+        <v>40253000</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>39920000</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>40153000</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>1299.84963736</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>52108582785.83458</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>166500</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>40568000</v>
+      </c>
+      <c r="J2114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2114" t="n">
+        <v>41.11966518628893</v>
+      </c>
+      <c r="L2114" t="n">
+        <v>24.21073664787382</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="2" t="n">
+        <v>45116.375</v>
+      </c>
+      <c r="B2115" t="n">
+        <v>40154000</v>
+      </c>
+      <c r="C2115" t="n">
+        <v>40302000</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>39770000</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>39832000</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>1485.27012622</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>59452578236.03948</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>266000</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>40320500</v>
+      </c>
+      <c r="J2115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2115" t="n">
+        <v>41.11966518628893</v>
+      </c>
+      <c r="L2115" t="n">
+        <v>24.21073664787382</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="2" t="n">
+        <v>45117.375</v>
+      </c>
+      <c r="B2116" t="n">
+        <v>39839000</v>
+      </c>
+      <c r="C2116" t="n">
+        <v>40784000</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>39666000</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>40050000</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>2829.62290954</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>113228698197.8694</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>559000</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>40105000</v>
+      </c>
+      <c r="J2116" t="n">
+        <v>0.9986285999251964</v>
+      </c>
+      <c r="K2116" t="n">
+        <v>41.06327367437655</v>
+      </c>
+      <c r="L2116" t="n">
+        <v>24.31467404930422</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="2" t="n">
+        <v>45118.375</v>
+      </c>
+      <c r="B2117" t="n">
+        <v>40060000</v>
+      </c>
+      <c r="C2117" t="n">
+        <v>40387000</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>39946000</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>40117000</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>2541.05729369</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>101896200770.3168</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>220500</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>40619000</v>
+      </c>
+      <c r="J2117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2117" t="n">
+        <v>41.06327367437655</v>
+      </c>
+      <c r="L2117" t="n">
+        <v>24.31467404930422</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="2" t="n">
+        <v>45119.375</v>
+      </c>
+      <c r="B2118" t="n">
+        <v>40117000</v>
+      </c>
+      <c r="C2118" t="n">
+        <v>40600000</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>39751000</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>39804000</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>3241.64008104</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>130054585570.2245</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>424500</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>40337500</v>
+      </c>
+      <c r="J2118" t="n">
+        <v>0.9867740935853734</v>
+      </c>
+      <c r="K2118" t="n">
+        <v>40.52017465968105</v>
+      </c>
+      <c r="L2118" t="n">
+        <v>25.31568108728865</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="2" t="n">
+        <v>45120.375</v>
+      </c>
+      <c r="B2119" t="n">
+        <v>39803000</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>40456000</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>39356000</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>40112000</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>7976.01139394</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>317548198923.1776</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>550000</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>40227500</v>
+      </c>
+      <c r="J2119" t="n">
+        <v>0.9971288297806227</v>
+      </c>
+      <c r="K2119" t="n">
+        <v>40.4038343409142</v>
+      </c>
+      <c r="L2119" t="n">
+        <v>25.5301124796053</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="2" t="n">
+        <v>45121.375</v>
+      </c>
+      <c r="B2120" t="n">
+        <v>40101000</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>40220000</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>38710000</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>39092000</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>5755.46123676</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>228310926497.6216</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>755000</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>40651000</v>
+      </c>
+      <c r="J2120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2120" t="n">
+        <v>40.4038343409142</v>
+      </c>
+      <c r="L2120" t="n">
+        <v>25.5301124796053</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="2" t="n">
+        <v>45122.375</v>
+      </c>
+      <c r="B2121" t="n">
+        <v>39092000</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>39144000</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>38786000</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>38889000</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>2903.65801258</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>112933801553.4576</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>179000</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>39847000</v>
+      </c>
+      <c r="J2121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2121" t="n">
+        <v>40.4038343409142</v>
+      </c>
+      <c r="L2121" t="n">
+        <v>25.5301124796053</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2" t="n">
+        <v>45123.375</v>
+      </c>
+      <c r="B2122" t="n">
+        <v>38889000</v>
+      </c>
+      <c r="C2122" t="n">
+        <v>39153000</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>38687000</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>38933000</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>2022.77368422</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>78716573652.74442</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>233000</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>39068000</v>
+      </c>
+      <c r="J2122" t="n">
+        <v>0.9965444865362957</v>
+      </c>
+      <c r="K2122" t="n">
+        <v>40.26421834736389</v>
+      </c>
+      <c r="L2122" t="n">
+        <v>25.78744417857257</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="2" t="n">
+        <v>45124.375</v>
+      </c>
+      <c r="B2123" t="n">
+        <v>38946000</v>
+      </c>
+      <c r="C2123" t="n">
+        <v>39022000</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>38350000</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>38742000</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>2582.39550489</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>100199595903.6282</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>336000</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>39179000</v>
+      </c>
+      <c r="J2123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2123" t="n">
+        <v>40.26421834736389</v>
+      </c>
+      <c r="L2123" t="n">
+        <v>25.78744417857257</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="2" t="n">
+        <v>45125.375</v>
+      </c>
+      <c r="B2124" t="n">
+        <v>38761000</v>
+      </c>
+      <c r="C2124" t="n">
+        <v>38828000</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>38098000</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>38401000</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>2601.55598996</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>99975576153.02892</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>365000</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>39097000</v>
+      </c>
+      <c r="J2124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2124" t="n">
+        <v>40.26421834736389</v>
+      </c>
+      <c r="L2124" t="n">
+        <v>25.78744417857257</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="2" t="n">
+        <v>45126.375</v>
+      </c>
+      <c r="B2125" t="n">
+        <v>38402000</v>
+      </c>
+      <c r="C2125" t="n">
+        <v>38850000</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>38300000</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>38323000</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>2432.74678152</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>93724792757.93306</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>275000</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>38767000</v>
+      </c>
+      <c r="J2125" t="n">
+        <v>0.9885469600433359</v>
+      </c>
+      <c r="K2125" t="n">
+        <v>39.80307064580769</v>
+      </c>
+      <c r="L2125" t="n">
+        <v>26.63740354568154</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="2" t="n">
+        <v>45127.375</v>
+      </c>
+      <c r="B2126" t="n">
+        <v>38322000</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>39100000</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>38316000</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>38567000</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>3246.54052293</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>125556811845.3677</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>392000</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>38597000</v>
+      </c>
+      <c r="J2126" t="n">
+        <v>0.99922273751846</v>
+      </c>
+      <c r="K2126" t="n">
+        <v>39.77213321234461</v>
+      </c>
+      <c r="L2126" t="n">
+        <v>26.69442553945385</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="2" t="n">
+        <v>45128.375</v>
+      </c>
+      <c r="B2127" t="n">
+        <v>38567000</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>38908000</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>38530000</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>38829000</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>2103.13941171</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>81362364429.71587</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>189000</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>38959000</v>
+      </c>
+      <c r="J2127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2127" t="n">
+        <v>39.77213321234461</v>
+      </c>
+      <c r="L2127" t="n">
+        <v>26.69442553945385</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="2" t="n">
+        <v>45129.375</v>
+      </c>
+      <c r="B2128" t="n">
+        <v>38838000</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>38934000</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>38600000</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>38776000</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>1447.07839081</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>56067219916.97034</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>167000</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>39027000</v>
+      </c>
+      <c r="J2128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2128" t="n">
+        <v>39.77213321234461</v>
+      </c>
+      <c r="L2128" t="n">
+        <v>26.69442553945385</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="2" t="n">
+        <v>45130.375</v>
+      </c>
+      <c r="B2129" t="n">
+        <v>38759000</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>39220000</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>38625000</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>38945000</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>2211.14927257</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>85916107563.91911</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>297500</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>38926000</v>
+      </c>
+      <c r="J2129" t="n">
+        <v>1.000488105636336</v>
+      </c>
+      <c r="K2129" t="n">
+        <v>39.79154621473464</v>
+      </c>
+      <c r="L2129" t="n">
+        <v>26.65864467538485</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="2" t="n">
+        <v>45131.375</v>
+      </c>
+      <c r="B2130" t="n">
+        <v>38944000</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>39019000</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>37892000</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>4398.31412006</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>168113088113.9755</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>659500</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>39241500</v>
+      </c>
+      <c r="J2130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2130" t="n">
+        <v>39.79154621473464</v>
+      </c>
+      <c r="L2130" t="n">
+        <v>26.65864467538485</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="2" t="n">
+        <v>45132.375</v>
+      </c>
+      <c r="B2131" t="n">
+        <v>37892000</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>38116000</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>37626000</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>37910000</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>2433.9221882</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>92057859896.4893</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>245000</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>38551500</v>
+      </c>
+      <c r="J2131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2131" t="n">
+        <v>39.79154621473464</v>
+      </c>
+      <c r="L2131" t="n">
+        <v>26.65864467538485</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="2" t="n">
+        <v>45133.375</v>
+      </c>
+      <c r="B2132" t="n">
+        <v>37910000</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>38300000</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>37918000</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>2477.2628933</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>93970927659.78053</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>38155000</v>
+      </c>
+      <c r="J2132" t="n">
+        <v>0.9937884942995675</v>
+      </c>
+      <c r="K2132" t="n">
+        <v>39.5443807985928</v>
+      </c>
+      <c r="L2132" t="n">
+        <v>27.11420492206113</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="2" t="n">
+        <v>45134.375</v>
+      </c>
+      <c r="B2133" t="n">
+        <v>37918000</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>38299000</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>37841000</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>37874000</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>3271.72655723</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>124634073119.6236</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>229000</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>38218000</v>
+      </c>
+      <c r="J2133" t="n">
+        <v>0.9909990057041185</v>
+      </c>
+      <c r="K2133" t="n">
+        <v>39.1884420525905</v>
+      </c>
+      <c r="L2133" t="n">
+        <v>27.77024954780846</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="2" t="n">
+        <v>45135.375</v>
+      </c>
+      <c r="B2134" t="n">
+        <v>37877000</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>38200000</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>37704000</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>37932000</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>2964.5947422</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>112303667484.5708</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>248000</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>38106000</v>
+      </c>
+      <c r="J2134" t="n">
+        <v>0.9954337899543378</v>
+      </c>
+      <c r="K2134" t="n">
+        <v>39.00949939481611</v>
+      </c>
+      <c r="L2134" t="n">
+        <v>28.10006575991892</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="2" t="n">
+        <v>45136.375</v>
+      </c>
+      <c r="B2135" t="n">
+        <v>37932000</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>38052000</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>37879000</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>37901000</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>1180.6781332</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>44801815216.40174</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>86500</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>38180000</v>
+      </c>
+      <c r="J2135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2135" t="n">
+        <v>39.00949939481611</v>
+      </c>
+      <c r="L2135" t="n">
+        <v>28.10006575991892</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="2" t="n">
+        <v>45137.375</v>
+      </c>
+      <c r="B2136" t="n">
+        <v>37901000</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>38150000</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>37762000</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>37850000</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>2378.17661892</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>90157027232.44344</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>194000</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>37987500</v>
+      </c>
+      <c r="J2136" t="n">
+        <v>0.9963803882856203</v>
+      </c>
+      <c r="K2136" t="n">
+        <v>38.86830015383455</v>
+      </c>
+      <c r="L2136" t="n">
+        <v>28.36031560415744</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="2" t="n">
+        <v>45138.375</v>
+      </c>
+      <c r="B2137" t="n">
+        <v>37850000</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>38139000</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>37805000</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>37929000</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>2383.01012579</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>90563421409.07397</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>167000</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>38044000</v>
+      </c>
+      <c r="J2137" t="n">
+        <v>0.9969771843129008</v>
+      </c>
+      <c r="K2137" t="n">
+        <v>38.75080844639866</v>
+      </c>
+      <c r="L2137" t="n">
+        <v>28.57686916596803</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="2" t="n">
+        <v>45139.375</v>
+      </c>
+      <c r="B2138" t="n">
+        <v>37928000</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>38684000</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>37510000</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>38642000</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>3035.90069302</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>114970531784.8775</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>587000</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>38095000</v>
+      </c>
+      <c r="J2138" t="n">
+        <v>1.014358839742748</v>
+      </c>
+      <c r="K2138" t="n">
+        <v>39.30722509478243</v>
+      </c>
+      <c r="L2138" t="n">
+        <v>27.55131587639682</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="2" t="n">
+        <v>45140.375</v>
+      </c>
+      <c r="B2139" t="n">
+        <v>38642000</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>39131000</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>38142000</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>38358000</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>3344.79997698</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>129357299336.9681</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>494500</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>39229000</v>
+      </c>
+      <c r="J2139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2139" t="n">
+        <v>39.30722509478243</v>
+      </c>
+      <c r="L2139" t="n">
+        <v>27.55131587639682</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="2" t="n">
+        <v>45141.375</v>
+      </c>
+      <c r="B2140" t="n">
+        <v>38358000</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>38800000</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>38215000</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>38436000</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>2032.73569956</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>78153136649.66298</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>292500</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>38852500</v>
+      </c>
+      <c r="J2140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2140" t="n">
+        <v>39.30722509478243</v>
+      </c>
+      <c r="L2140" t="n">
+        <v>27.55131587639682</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="2" t="n">
+        <v>45142.375</v>
+      </c>
+      <c r="B2141" t="n">
+        <v>38436000</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>38715000</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>38250000</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>38492000</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>2256.9466739</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>87010045473.68465</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>232500</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>38728500</v>
+      </c>
+      <c r="J2141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2141" t="n">
+        <v>39.30722509478243</v>
+      </c>
+      <c r="L2141" t="n">
+        <v>27.55131587639682</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="2" t="n">
+        <v>45143.375</v>
+      </c>
+      <c r="B2142" t="n">
+        <v>38493000</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>38590000</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>38341000</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>38474000</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>2113.69677535</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>81362884396.19951</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>124500</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>38725500</v>
+      </c>
+      <c r="J2142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2142" t="n">
+        <v>39.30722509478243</v>
+      </c>
+      <c r="L2142" t="n">
+        <v>27.55131587639682</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="2" t="n">
+        <v>45144.375</v>
+      </c>
+      <c r="B2143" t="n">
+        <v>38476000</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>38788000</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>38432000</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>38605000</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>3520.86968381</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>135926148864.276</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>178000</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>38600500</v>
+      </c>
+      <c r="J2143" t="n">
+        <v>1.000116578800793</v>
+      </c>
+      <c r="K2143" t="n">
+        <v>39.31180748394647</v>
+      </c>
+      <c r="L2143" t="n">
+        <v>27.54286989568268</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="2" t="n">
+        <v>45145.375</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>38605000</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>38809000</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>38081000</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>38622000</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>7095.41631462</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>273159821065.1873</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>364000</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>38783000</v>
+      </c>
+      <c r="J2144" t="n">
+        <v>0.9958486965938684</v>
+      </c>
+      <c r="K2144" t="n">
+        <v>39.14861224363717</v>
+      </c>
+      <c r="L2144" t="n">
+        <v>27.84366142668325</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="2" t="n">
+        <v>45146.375</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>38622000</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>39580000</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>38570000</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>39437000</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>3956.68315457</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>154368199197.1691</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>505000</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>38986000</v>
+      </c>
+      <c r="J2145" t="n">
+        <v>1.011568255271123</v>
+      </c>
+      <c r="K2145" t="n">
+        <v>39.60149338358178</v>
+      </c>
+      <c r="L2145" t="n">
+        <v>27.00893848263756</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="2" t="n">
+        <v>45147.375</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>39437000</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>39850000</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>39076000</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>39209000</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>3299.56867529</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>130305101311.4717</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>387000</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>39942000</v>
+      </c>
+      <c r="J2146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2146" t="n">
+        <v>39.60149338358178</v>
+      </c>
+      <c r="L2146" t="n">
+        <v>27.00893848263756</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="2" t="n">
+        <v>45148.375</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>39209000</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>39397000</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>39010000</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>39119000</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>2713.94553163</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>106358893196.1931</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>193500</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>39596000</v>
+      </c>
+      <c r="J2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2147" t="n">
+        <v>39.60149338358178</v>
+      </c>
+      <c r="L2147" t="n">
+        <v>27.00893848263756</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="2" t="n">
+        <v>45149.375</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>39119000</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>39410000</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>39050000</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>39233000</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1877.91210358</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>73582617604.95915</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>180000</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>39312500</v>
+      </c>
+      <c r="J2148" t="n">
+        <v>0.9979777424483307</v>
+      </c>
+      <c r="K2148" t="n">
+        <v>39.52140896452945</v>
+      </c>
+      <c r="L2148" t="n">
+        <v>27.15654520799539</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="2" t="n">
+        <v>45150.375</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>39233000</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>39316000</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>39099000</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>39283000</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1450.6799782</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>56930932272.25706</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>108500</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>39413000</v>
+      </c>
+      <c r="J2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2149" t="n">
+        <v>39.52140896452945</v>
+      </c>
+      <c r="L2149" t="n">
+        <v>27.15654520799539</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="2" t="n">
+        <v>45151.375</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>39283000</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>39330000</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>39101000</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>39118000</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>1323.87308566</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>51963334856.391</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>114500</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>39391500</v>
+      </c>
+      <c r="J2150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2150" t="n">
+        <v>39.52140896452945</v>
+      </c>
+      <c r="L2150" t="n">
+        <v>27.15654520799539</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="2" t="n">
+        <v>45152.375</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>39118000</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>39640000</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>38895000</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>39288000</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2247.99874816</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>88257787754.31268</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>372500</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>39232500</v>
+      </c>
+      <c r="J2151" t="n">
+        <v>1.001414643471612</v>
+      </c>
+      <c r="K2151" t="n">
+        <v>39.57731766771001</v>
+      </c>
+      <c r="L2151" t="n">
+        <v>27.05349769022425</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="2" t="n">
+        <v>45153.375</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>39288000</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>39668000</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>39275000</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>39404000</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>3383.23584164</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>133573144631.2606</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>196500</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>39660500</v>
+      </c>
+      <c r="J2152" t="n">
+        <v>0.993532608010489</v>
+      </c>
+      <c r="K2152" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2152" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="2" t="n">
+        <v>45154.375</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>39404000</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>39600000</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>39001000</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>39001000</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>4144.93132559</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>163196719583.019</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>299500</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>39600500</v>
+      </c>
+      <c r="J2153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2153" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2153" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="2" t="n">
+        <v>45155.375</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>39001000</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>39092000</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>36261000</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>36588000</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>9224.234794620001</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>347989303093.6362</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>1415500</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>39300500</v>
+      </c>
+      <c r="J2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2154" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2154" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="2" t="n">
+        <v>45156.375</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>36588000</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>36848000</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>35384000</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>35890000</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>9256.75234641</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>334394799822.6389</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>732000</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>38003500</v>
+      </c>
+      <c r="J2155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2155" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2155" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="2" t="n">
+        <v>45157.375</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>35899000</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>36240000</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>35587000</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>36056000</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>2670.31605801</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>95846647159.2314</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>326500</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>36631000</v>
+      </c>
+      <c r="J2156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2156" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2156" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="2" t="n">
+        <v>45158.375</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>36071000</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>36225000</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>35754000</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>35949000</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1654.93693763</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>59546393015.75887</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>235500</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>36397500</v>
+      </c>
+      <c r="J2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2157" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2157" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="2" t="n">
+        <v>45159.375</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>35946000</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>35967000</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>35500000</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>35769000</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>2142.99960623</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>76516804610.68242</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>233500</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>36181500</v>
+      </c>
+      <c r="J2158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2158" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2158" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="2" t="n">
+        <v>45160.375</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>35769000</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>35877000</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>35150000</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>35684000</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>2434.37426024</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>86694305845.75404</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>363500</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>36002500</v>
+      </c>
+      <c r="J2159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2159" t="n">
+        <v>39.32135564045954</v>
+      </c>
+      <c r="L2159" t="n">
+        <v>27.52527131492533</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="2" t="n">
+        <v>45161.375</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>35686000</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>36350000</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>35320000</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>35941000</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>2242.66645398</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>80152294407.05554</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>515000</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>36049500</v>
+      </c>
+      <c r="J2160" t="n">
+        <v>0.9969902495180238</v>
+      </c>
+      <c r="K2160" t="n">
+        <v>39.20300817136871</v>
+      </c>
+      <c r="L2160" t="n">
+        <v>27.74340216451633</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="2" t="n">
+        <v>45162.375</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>35941000</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>36056000</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>35330000</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>35635000</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>1899.01993705</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>67798438136.98717</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>363000</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>36456000</v>
+      </c>
+      <c r="J2161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2161" t="n">
+        <v>39.20300817136871</v>
+      </c>
+      <c r="L2161" t="n">
+        <v>27.74340216451633</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="2" t="n">
+        <v>45163.375</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>35646000</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>35797000</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>35200000</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>35479000</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>2117.11461503</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>75050156287.15959</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>298500</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>36009000</v>
+      </c>
+      <c r="J2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2162" t="n">
+        <v>39.20300817136871</v>
+      </c>
+      <c r="L2162" t="n">
+        <v>27.74340216451633</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="2" t="n">
+        <v>45164.375</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>35479000</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>35564000</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>35385000</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>35398000</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>672.27237906</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>23834379918.87522</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>89500</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>35777500</v>
+      </c>
+      <c r="J2163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2163" t="n">
+        <v>39.20300817136871</v>
+      </c>
+      <c r="L2163" t="n">
+        <v>27.74340216451633</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="2" t="n">
+        <v>45165.375</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>35400000</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>35553000</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>35374000</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>35402000</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>845.25346452</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>29946645612.68123</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>89500</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>35489500</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>0.9975344820298961</v>
+      </c>
+      <c r="K2164" t="n">
+        <v>39.10635245024007</v>
+      </c>
+      <c r="L2164" t="n">
+        <v>27.92155210493829</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="2" t="n">
+        <v>45166.375</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>35400000</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>35544000</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>35050000</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>35335000</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>1815.49057785</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>64012919015.38614</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>247000</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>35489500</v>
+      </c>
+      <c r="J2165" t="n">
+        <v>0.9956465996985023</v>
+      </c>
+      <c r="K2165" t="n">
+        <v>38.93610684369272</v>
+      </c>
+      <c r="L2165" t="n">
+        <v>28.23533844173613</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="2" t="n">
+        <v>45167.375</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>35335000</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>37932000</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>35138000</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>37445000</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>6996.57927831</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>257110367873.9615</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>1397000</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>35582000</v>
+      </c>
+      <c r="J2166" t="n">
+        <v>1.052357933786746</v>
+      </c>
+      <c r="K2166" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2166" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="2" t="n">
+        <v>45168.375</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>37441000</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>37568000</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>36760000</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>37109000</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>4503.91825355</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>167176652726.2221</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>404000</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>38838000</v>
+      </c>
+      <c r="J2167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2167" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2167" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="2" t="n">
+        <v>45169.375</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>37110000</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>37500000</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>35400000</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>35502000</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>5086.6186881</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>186018323204.2828</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>37514000</v>
+      </c>
+      <c r="J2168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2168" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2168" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="2" t="n">
+        <v>45170.375</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>35502000</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>35695000</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>35350000</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>5520.94616028</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>195425846296.8227</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>347500</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>36552000</v>
+      </c>
+      <c r="J2169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2169" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2169" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="2" t="n">
+        <v>45171.375</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>35350000</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>35570000</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>35006000</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>35204000</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>6333.54306521</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>223346529895.4536</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>282000</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>35697500</v>
+      </c>
+      <c r="J2170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2170" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2170" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>45172.375</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>35204000</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>35444000</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>35105000</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>35308000</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>2810.79936801</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>99038833087.72752</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>169500</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>35486000</v>
+      </c>
+      <c r="J2171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2171" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2171" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>45173.375</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>35312000</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>35350000</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>34863000</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>35011000</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>3280.50767726</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>115260695491.6864</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>243500</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>35481500</v>
+      </c>
+      <c r="J2172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2172" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2172" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>35035000</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>35207000</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>34791000</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>35056000</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>3025.89362339</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>105913788655.0502</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>208000</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>35278500</v>
+      </c>
+      <c r="J2173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2173" t="n">
+        <v>40.97472094772846</v>
+      </c>
+      <c r="L2173" t="n">
+        <v>24.4778890436403</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>45175.375</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>35054000</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>35310000</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>34730000</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>35029000</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>2111.49981419</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>73930132719.30736</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>290000</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>35262000</v>
+      </c>
+      <c r="J2174" t="n">
+        <v>0.9933923203448471</v>
+      </c>
+      <c r="K2174" t="n">
+        <v>40.70397311774659</v>
+      </c>
+      <c r="L2174" t="n">
+        <v>24.97691495972084</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>35025000</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>35864000</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>34903000</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>35615000</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>1985.80007621</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>70004865290.15189</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>480500</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>35315000</v>
+      </c>
+      <c r="J2175" t="n">
+        <v>1.008494973807164</v>
+      </c>
+      <c r="K2175" t="n">
+        <v>41.04975230322935</v>
+      </c>
+      <c r="L2175" t="n">
+        <v>24.33959581737102</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="2" t="n">
+        <v>45177.375</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>35644000</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>35823000</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>35020000</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>35295000</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>2600.36718222</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>92224176186.92474</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>401500</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>36124500</v>
+      </c>
+      <c r="J2176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2176" t="n">
+        <v>41.04975230322935</v>
+      </c>
+      <c r="L2176" t="n">
+        <v>24.33959581737102</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="2" t="n">
+        <v>45178.375</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>35295000</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>35314000</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>35150000</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>35280000</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>1238.27863378</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>43632447689.66779</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>82000</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>35696500</v>
+      </c>
+      <c r="J2177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2177" t="n">
+        <v>41.04975230322935</v>
+      </c>
+      <c r="L2177" t="n">
+        <v>24.33959581737102</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="2" t="n">
+        <v>45179.375</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>35280000</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>35450000</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>35030000</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>35196000</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>1767.33268683</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>62283181152.08193</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>210000</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>35362000</v>
+      </c>
+      <c r="J2178" t="n">
+        <v>0.9953056953792206</v>
+      </c>
+      <c r="K2178" t="n">
+        <v>40.85705226131046</v>
+      </c>
+      <c r="L2178" t="n">
+        <v>24.69476880233557</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="2" t="n">
+        <v>45180.375</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>35196000</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>35256000</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>34100000</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>34327000</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>3912.70930088</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>135719060328.4184</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>578000</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>35406000</v>
+      </c>
+      <c r="J2179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2179" t="n">
+        <v>40.85705226131046</v>
+      </c>
+      <c r="L2179" t="n">
+        <v>24.69476880233557</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="2" t="n">
+        <v>45181.375</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>34330000</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>35861000</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>34286000</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>35077000</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>4685.11366878</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>164963399198.2145</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>787500</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>34908000</v>
+      </c>
+      <c r="J2180" t="n">
+        <v>1.004841297123868</v>
+      </c>
+      <c r="K2180" t="n">
+        <v>41.05485339091288</v>
+      </c>
+      <c r="L2180" t="n">
+        <v>24.33019380312606</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="2" t="n">
+        <v>45182.375</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>35076000</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>35749000</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>35497000</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>3451.70002962</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>122085333753.2003</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>374500</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>35863500</v>
+      </c>
+      <c r="J2181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2181" t="n">
+        <v>41.05485339091288</v>
+      </c>
+      <c r="L2181" t="n">
+        <v>24.33019380312606</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="2" t="n">
+        <v>45183.375</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>35499000</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>36310000</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>35408000</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>35889000</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>3742.61235483</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>134018691888.4686</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>451000</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>35873500</v>
+      </c>
+      <c r="J2182" t="n">
+        <v>1.000432073814933</v>
+      </c>
+      <c r="K2182" t="n">
+        <v>41.07259211803901</v>
+      </c>
+      <c r="L2182" t="n">
+        <v>24.29749886128734</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="2" t="n">
+        <v>45184.375</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>35872000</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>36193000</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>35547000</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>35928000</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>3336.88755512</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>119726592404.3971</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>323000</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>36323000</v>
+      </c>
+      <c r="J2183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2183" t="n">
+        <v>41.07259211803901</v>
+      </c>
+      <c r="L2183" t="n">
+        <v>24.29749886128734</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="2" t="n">
+        <v>45185.375</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>35907000</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>36051000</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>35800000</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>35938000</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>2192.88512486</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>78755069542.96677</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>125500</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>36230000</v>
+      </c>
+      <c r="J2184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2184" t="n">
+        <v>41.07259211803901</v>
+      </c>
+      <c r="L2184" t="n">
+        <v>24.29749886128734</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="2" t="n">
+        <v>45186.375</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>35939000</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>35996000</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>35650000</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>35758000</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>2014.74409253</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>72102028928.87737</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>173000</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>36064500</v>
+      </c>
+      <c r="J2185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2185" t="n">
+        <v>41.07259211803901</v>
+      </c>
+      <c r="L2185" t="n">
+        <v>24.29749886128734</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="2" t="n">
+        <v>45187.375</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>35758000</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>36801000</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>35658000</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>3943.4175099</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>142795320939.7739</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>571500</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>35931000</v>
+      </c>
+      <c r="J2186" t="n">
+        <v>1.001920347332387</v>
+      </c>
+      <c r="K2186" t="n">
+        <v>41.15146576074711</v>
+      </c>
+      <c r="L2186" t="n">
+        <v>24.15212376517059</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="2" t="n">
+        <v>45188.375</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>36820000</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>35750000</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>36500000</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>3097.74850512</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>112443927907.9183</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>535000</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>36571500</v>
+      </c>
+      <c r="J2187" t="n">
+        <v>0.9980449256935046</v>
+      </c>
+      <c r="K2187" t="n">
+        <v>41.07101158736364</v>
+      </c>
+      <c r="L2187" t="n">
+        <v>24.30041199919955</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="2" t="n">
+        <v>45189.375</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>36509000</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>36743000</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>36150000</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>36501000</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>2853.88170307</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>104079064569.8043</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>296500</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>37044000</v>
+      </c>
+      <c r="J2188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2188" t="n">
+        <v>41.07101158736364</v>
+      </c>
+      <c r="L2188" t="n">
+        <v>24.30041199919955</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="2" t="n">
+        <v>45190.375</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>36502000</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>36659000</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>35818000</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>36012000</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>3438.83869913</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>124717307648.6523</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>420500</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>36798500</v>
+      </c>
+      <c r="J2189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2189" t="n">
+        <v>41.07101158736364</v>
+      </c>
+      <c r="L2189" t="n">
+        <v>24.30041199919955</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="2" t="n">
+        <v>45191.375</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>35989000</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>36129000</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>35900000</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>35952000</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>2075.65459659</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>74758845753.72214</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>114500</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>36409500</v>
+      </c>
+      <c r="J2190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2190" t="n">
+        <v>41.07101158736364</v>
+      </c>
+      <c r="L2190" t="n">
+        <v>24.30041199919955</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>35964000</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>36019000</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>35901000</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>35960000</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>999.55399584</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>35937760415.94626</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>59000</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>36078500</v>
+      </c>
+      <c r="J2191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2191" t="n">
+        <v>41.07101158736364</v>
+      </c>
+      <c r="L2191" t="n">
+        <v>24.30041199919955</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="2" t="n">
+        <v>45193.375</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>35951000</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>36100000</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>35500000</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>35534000</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>1635.89364001</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>58720732365.10599</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>36010000</v>
+      </c>
+      <c r="J2192" t="n">
+        <v>0.986781449597334</v>
+      </c>
+      <c r="K2192" t="n">
+        <v>40.5281123506076</v>
+      </c>
+      <c r="L2192" t="n">
+        <v>25.30105081864917</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="2" t="n">
+        <v>45194.375</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>35530000</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>35701000</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>35176000</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>35491000</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>2877.48269704</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>101819900456.1642</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>262500</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>35830000</v>
+      </c>
+      <c r="J2193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2193" t="n">
+        <v>40.5281123506076</v>
+      </c>
+      <c r="L2193" t="n">
+        <v>25.30105081864917</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="2" t="n">
+        <v>45195.375</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>35497000</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>35805000</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>35428000</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>35566000</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>2209.87507796</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>78730861954.60088</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>188500</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>35759500</v>
+      </c>
+      <c r="J2194" t="n">
+        <v>0.9945888505152477</v>
+      </c>
+      <c r="K2194" t="n">
+        <v>40.30880867634362</v>
+      </c>
+      <c r="L2194" t="n">
+        <v>25.70525799902338</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="2" t="n">
+        <v>45196.375</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>35566000</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>36485000</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>35560000</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>35982000</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>3281.14651657</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>118005398840.4384</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>462500</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>35754500</v>
+      </c>
+      <c r="J2195" t="n">
+        <v>1.006362835447286</v>
+      </c>
+      <c r="K2195" t="n">
+        <v>40.56528699302735</v>
+      </c>
+      <c r="L2195" t="n">
+        <v>25.23253278107257</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="2" t="n">
+        <v>45197.375</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>35979000</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>36999000</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>35933000</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>36596000</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>2834.06267564</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>103097051929.533</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>533000</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>36441500</v>
+      </c>
+      <c r="J2196" t="n">
+        <v>1.004239671802752</v>
+      </c>
+      <c r="K2196" t="n">
+        <v>40.73727049646224</v>
+      </c>
+      <c r="L2196" t="n">
+        <v>24.91554325854127</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="2" t="n">
+        <v>45198.375</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>36596000</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>36868000</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>36260000</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>36444000</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>1841.58706365</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>67355567372.47279</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>304000</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>37129000</v>
+      </c>
+      <c r="J2197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2197" t="n">
+        <v>40.73727049646224</v>
+      </c>
+      <c r="L2197" t="n">
+        <v>24.91554325854127</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>36444000</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>36740000</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>36404000</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>36600000</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>1372.41615254</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>50218206635.28963</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>168000</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>36748000</v>
+      </c>
+      <c r="J2198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2198" t="n">
+        <v>40.73727049646224</v>
+      </c>
+      <c r="L2198" t="n">
+        <v>24.91554325854127</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="2" t="n">
+        <v>45200.375</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>36614000</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>37817000</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>36555000</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>37789000</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>2733.22252426</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>101274287532.8141</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>631000</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>36782000</v>
+      </c>
+      <c r="J2199" t="n">
+        <v>1.027377521613833</v>
+      </c>
+      <c r="K2199" t="n">
+        <v>41.85255599996769</v>
+      </c>
+      <c r="L2199" t="n">
+        <v>22.85991692123909</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>37788000</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>38720000</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>37200000</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>37424000</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>4894.78634431</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>186313583118.0146</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>760000</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>38419000</v>
+      </c>
+      <c r="J2200" t="n">
+        <v>0.9741013560998464</v>
+      </c>
+      <c r="K2200" t="n">
+        <v>40.76863155581329</v>
+      </c>
+      <c r="L2200" t="n">
+        <v>24.85774046332418</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="2" t="n">
+        <v>45202.375</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>37424000</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>37791000</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>37012000</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>37197000</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>2600.08235706</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>97326904656.77483</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>389500</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>38184000</v>
+      </c>
+      <c r="J2201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2201" t="n">
+        <v>40.76863155581329</v>
+      </c>
+      <c r="L2201" t="n">
+        <v>24.85774046332418</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="2" t="n">
+        <v>45203.375</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>37198000</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>37740000</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>37036000</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>37595000</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>2387.11196686</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>89233400444.09496</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>352000</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>37587500</v>
+      </c>
+      <c r="J2202" t="n">
+        <v>1.000199534419687</v>
+      </c>
+      <c r="K2202" t="n">
+        <v>40.77676630105223</v>
+      </c>
+      <c r="L2202" t="n">
+        <v>24.84274699617353</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="2" t="n">
+        <v>45204.375</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>37592000</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>38096000</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>37240000</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>37258000</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>2329.61562457</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>87537921532.34395</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>428000</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>37944000</v>
+      </c>
+      <c r="J2203" t="n">
+        <v>0.981920725279359</v>
+      </c>
+      <c r="K2203" t="n">
+        <v>40.03955194087614</v>
+      </c>
+      <c r="L2203" t="n">
+        <v>26.20153562047843</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="2" t="n">
+        <v>45205.375</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>37258000</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>38124000</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>37050000</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>37798000</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>2400.327927</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>90184643588.37437</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>537000</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>37686000</v>
+      </c>
+      <c r="J2204" t="n">
+        <v>1.002971925914133</v>
+      </c>
+      <c r="K2204" t="n">
+        <v>40.15854652287948</v>
+      </c>
+      <c r="L2204" t="n">
+        <v>25.98221205176574</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>37798000</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>37997000</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>37725000</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>37902000</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>1006.0876418</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>38115140031.55202</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>136000</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>38335000</v>
+      </c>
+      <c r="J2205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2205" t="n">
+        <v>40.15854652287948</v>
+      </c>
+      <c r="L2205" t="n">
+        <v>25.98221205176574</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="2" t="n">
+        <v>45207.375</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>37902000</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>38109000</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>37587000</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>37929000</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>1880.64238934</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>71305648926.66829</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>261000</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>38038000</v>
+      </c>
+      <c r="J2206" t="n">
+        <v>0.9971344445028656</v>
+      </c>
+      <c r="K2206" t="n">
+        <v>40.04346997913392</v>
+      </c>
+      <c r="L2206" t="n">
+        <v>26.19431413090653</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="2" t="n">
+        <v>45208.375</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>37929000</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>38047000</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>37237000</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>37595000</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>3186.87540521</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>119979036669.3265</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>405000</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>38190000</v>
+      </c>
+      <c r="J2207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2207" t="n">
+        <v>40.04346997913392</v>
+      </c>
+      <c r="L2207" t="n">
+        <v>26.19431413090653</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="2" t="n">
+        <v>45209.375</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>37595000</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>37810000</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>37262000</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>37336000</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>2088.59646744</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>78432728980.09937</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>274000</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="J2208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2208" t="n">
+        <v>40.04346997913392</v>
+      </c>
+      <c r="L2208" t="n">
+        <v>26.19431413090653</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="2" t="n">
+        <v>45210.375</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>37323000</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>37403000</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>36291000</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>36671000</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>3302.24816453</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>121703714693.1617</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>556000</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>37597000</v>
+      </c>
+      <c r="J2209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2209" t="n">
+        <v>40.04346997913392</v>
+      </c>
+      <c r="L2209" t="n">
+        <v>26.19431413090653</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="2" t="n">
+        <v>45211.375</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>36671000</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>36880000</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>36408000</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>1763.26549608</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>64503382510.69762</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>236000</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>37227000</v>
+      </c>
+      <c r="J2210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2210" t="n">
+        <v>40.04346997913392</v>
+      </c>
+      <c r="L2210" t="n">
+        <v>26.19431413090653</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="2" t="n">
+        <v>45212.375</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>36750000</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>37193000</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>36724000</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>36968000</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>1756.99023804</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>64841512795.1982</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>234500</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>36986000</v>
+      </c>
+      <c r="J2211" t="n">
+        <v>0.999513329367869</v>
+      </c>
+      <c r="K2211" t="n">
+        <v>40.02398199828645</v>
+      </c>
+      <c r="L2211" t="n">
+        <v>26.23023319070331</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="2" t="n">
+        <v>45213.375</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>36968000</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>37156000</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>36700000</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>36790000</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>1222.06533918</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>45151269085.55234</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>228000</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>37202500</v>
+      </c>
+      <c r="J2212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2212" t="n">
+        <v>40.02398199828645</v>
+      </c>
+      <c r="L2212" t="n">
+        <v>26.23023319070331</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="2" t="n">
+        <v>45214.375</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>36790000</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>37189000</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>36659000</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>37086000</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>1648.56771035</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>60732500501.17132</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>265000</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>37018000</v>
+      </c>
+      <c r="J2213" t="n">
+        <v>1.001836944189313</v>
+      </c>
+      <c r="K2213" t="n">
+        <v>40.09750381945138</v>
+      </c>
+      <c r="L2213" t="n">
+        <v>26.09472224621597</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="2" t="n">
+        <v>45215.375</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>37087000</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>40700000</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>38697000</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>9125.6095245</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>351913585145.2934</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>37352000</v>
+      </c>
+      <c r="J2214" t="n">
+        <v>1.036008781323624</v>
+      </c>
+      <c r="K2214" t="n">
+        <v>41.54136606610918</v>
+      </c>
+      <c r="L2214" t="n">
+        <v>23.43348326091829</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="2" t="n">
+        <v>45216.375</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>38686000</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>38947000</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>38156000</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>38652000</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>3189.76773803</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>123061894306.7804</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>395500</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>40536000</v>
+      </c>
+      <c r="J2215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2215" t="n">
+        <v>41.54136606610918</v>
+      </c>
+      <c r="L2215" t="n">
+        <v>23.43348326091829</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="2" t="n">
+        <v>45217.375</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>38652000</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>39380000</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>38479000</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>38710000</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>2698.75413038</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>104730562417.987</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>450500</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>39047500</v>
+      </c>
+      <c r="J2216" t="n">
+        <v>0.9913566809654908</v>
+      </c>
+      <c r="K2216" t="n">
+        <v>41.18231078607046</v>
+      </c>
+      <c r="L2216" t="n">
+        <v>24.09527209245526</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="2" t="n">
+        <v>45218.375</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>38672000</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>39250000</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>38550000</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>39000000</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>4211.27040526</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>163821734881.2922</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>350000</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>39122500</v>
+      </c>
+      <c r="J2217" t="n">
+        <v>0.9968688095085948</v>
+      </c>
+      <c r="K2217" t="n">
+        <v>41.05336112612302</v>
+      </c>
+      <c r="L2217" t="n">
+        <v>24.33294425473207</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>39000000</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>40700000</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>38820000</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>40250000</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>6455.83376435</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>257642978882.0682</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>940000</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>39350000</v>
+      </c>
+      <c r="J2218" t="n">
+        <v>1.02287166454892</v>
+      </c>
+      <c r="K2218" t="n">
+        <v>41.99231983040538</v>
+      </c>
+      <c r="L2218" t="n">
+        <v>22.60231273832187</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>40250000</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>40745000</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>39975000</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>40400000</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>2554.62807083</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>103001454706.268</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>385000</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>41190000</v>
+      </c>
+      <c r="J2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2219" t="n">
+        <v>41.99231983040538</v>
+      </c>
+      <c r="L2219" t="n">
+        <v>22.60231273832187</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="2" t="n">
+        <v>45221.375</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>40406000</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>40736000</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>40117000</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>40354000</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>2733.23876209</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>110397968587.466</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>309500</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>40791000</v>
+      </c>
+      <c r="J2220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2220" t="n">
+        <v>41.99231983040538</v>
+      </c>
+      <c r="L2220" t="n">
+        <v>22.60231273832187</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="2" t="n">
+        <v>45222.375</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>40354000</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>45165000</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>40307000</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>44179000</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>11111.91639708</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>470736919769.6222</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>2429000</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>40663500</v>
+      </c>
+      <c r="J2221" t="n">
+        <v>1.086453453342678</v>
+      </c>
+      <c r="K2221" t="n">
+        <v>45.62270089361416</v>
+      </c>
+      <c r="L2221" t="n">
+        <v>15.91101539381317</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>45223.375</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>44179000</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>47459000</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>43820000</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>45599000</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>17112.17695256</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>783556734920.041</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>1819500</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>46608000</v>
+      </c>
+      <c r="J2222" t="n">
+        <v>0.9783513559903879</v>
+      </c>
+      <c r="K2222" t="n">
+        <v>44.6350312832113</v>
+      </c>
+      <c r="L2222" t="n">
+        <v>17.73142788668225</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>45224.375</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>45593000</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>47355000</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>45556000</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>46484000</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>7593.96895691</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>352246450482.9208</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>899500</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>47412500</v>
+      </c>
+      <c r="J2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2223" t="n">
+        <v>44.6350312832113</v>
+      </c>
+      <c r="L2223" t="n">
+        <v>17.73142788668225</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>45225.375</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>46485000</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>47093000</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>45631000</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>46141000</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>6702.74205085</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>310796638877.9707</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>731000</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>47384500</v>
+      </c>
+      <c r="J2224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2224" t="n">
+        <v>44.6350312832113</v>
+      </c>
+      <c r="L2224" t="n">
+        <v>17.73142788668225</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>45226.375</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>46140000</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>46205000</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>45450000</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>45980000</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>3075.95792102</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>141262434266.9474</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>377500</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>46871000</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>44.6350312832113</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>17.73142788668225</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>45980000</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>46780000</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>45955000</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>46314000</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>2191.55682092</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>101583770481.7882</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>412500</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>46357500</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>0.9990616405112441</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>44.59314757807578</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>17.80862538195118</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>46316000</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>46452000</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>46286000</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>46288000</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>326.83606735</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>15148785259.60659</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>83000</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>46728500</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>44.59314757807578</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>17.80862538195118</v>
       </c>
     </row>
   </sheetData>

--- a/btc.xlsx
+++ b/btc.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2227"/>
+  <dimension ref="A1:L2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85052,34 +85052,566 @@
         <v>46316000</v>
       </c>
       <c r="C2227" t="n">
-        <v>46452000</v>
+        <v>47028000</v>
       </c>
       <c r="D2227" t="n">
-        <v>46286000</v>
+        <v>46285000</v>
       </c>
       <c r="E2227" t="n">
-        <v>46288000</v>
+        <v>46825000</v>
       </c>
       <c r="F2227" t="n">
-        <v>326.83606735</v>
+        <v>2408.99526887</v>
       </c>
       <c r="G2227" t="n">
-        <v>15148785259.60659</v>
+        <v>112427935158.9061</v>
       </c>
       <c r="H2227" t="n">
-        <v>83000</v>
+        <v>371500</v>
       </c>
       <c r="I2227" t="n">
         <v>46728500</v>
       </c>
       <c r="J2227" t="n">
-        <v>1</v>
+        <v>1.002065120857721</v>
       </c>
       <c r="K2227" t="n">
-        <v>44.59314757807578</v>
+        <v>44.68523781725068</v>
       </c>
       <c r="L2227" t="n">
-        <v>17.80862538195118</v>
+        <v>17.63889025990272</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>45229.375</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>46825000</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>47215000</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>46417000</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>46732000</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>4138.81726801</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>193672784728.4677</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>399000</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>47196500</v>
+      </c>
+      <c r="J2228" t="n">
+        <v>0.990158168508258</v>
+      </c>
+      <c r="K2228" t="n">
+        <v>44.24545323648488</v>
+      </c>
+      <c r="L2228" t="n">
+        <v>18.44947442343762</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>45230.375</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>46734000</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>47050000</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>46302000</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>47030000</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>4120.3851524</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>192294569663.8038</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>374000</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>47133000</v>
+      </c>
+      <c r="J2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2229" t="n">
+        <v>44.24545323648488</v>
+      </c>
+      <c r="L2229" t="n">
+        <v>18.44947442343762</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>47030000</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>48165000</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>46720000</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>48079000</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>6327.33174114</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>299411220288.5296</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>722500</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>47404000</v>
+      </c>
+      <c r="J2230" t="n">
+        <v>1.014239304700025</v>
+      </c>
+      <c r="K2230" t="n">
+        <v>44.87547772670992</v>
+      </c>
+      <c r="L2230" t="n">
+        <v>17.28825164130573</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>45232.375</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>48100000</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>48661000</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>46732000</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>47516000</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>5972.0703977</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>285475840328.6736</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>964500</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>48822500</v>
+      </c>
+      <c r="J2231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2231" t="n">
+        <v>44.87547772670992</v>
+      </c>
+      <c r="L2231" t="n">
+        <v>17.28825164130573</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>45233.375</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>47524000</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>47524000</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>46203000</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>46676000</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>4936.17064119</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>230047830133.9936</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>660500</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>48488500</v>
+      </c>
+      <c r="J2232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2232" t="n">
+        <v>44.87547772670992</v>
+      </c>
+      <c r="L2232" t="n">
+        <v>17.28825164130573</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>46675000</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>47246000</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>46473000</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>47050000</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>2806.91856547</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>131307809038.2666</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>386500</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>47335500</v>
+      </c>
+      <c r="J2233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2233" t="n">
+        <v>44.87547772670992</v>
+      </c>
+      <c r="L2233" t="n">
+        <v>17.28825164130573</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>45235.375</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>47052000</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>47500000</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>46670000</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>47056000</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>3392.8399816</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>159997546547.1882</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>415000</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>47438500</v>
+      </c>
+      <c r="J2234" t="n">
+        <v>0.9919369288657947</v>
+      </c>
+      <c r="K2234" t="n">
+        <v>44.51364355761801</v>
+      </c>
+      <c r="L2234" t="n">
+        <v>17.95516235195637</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>45236.375</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>47056000</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>47197000</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>46471000</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>46781000</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>3504.69710331</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>164129100581.5902</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>363000</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>47471000</v>
+      </c>
+      <c r="J2235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2235" t="n">
+        <v>44.51364355761801</v>
+      </c>
+      <c r="L2235" t="n">
+        <v>17.95516235195637</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>45237.375</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>46781000</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>47696000</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>46300000</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>47301000</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>3939.2516709</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>184409450823.2183</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>698000</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>47144000</v>
+      </c>
+      <c r="J2236" t="n">
+        <v>1.003330222297641</v>
+      </c>
+      <c r="K2236" t="n">
+        <v>44.66188388594284</v>
+      </c>
+      <c r="L2236" t="n">
+        <v>17.68193480421451</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>45238.375</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>47301000</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>47900000</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>46927000</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>47458000</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>2949.25778949</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>139385505114.5386</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>486500</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>47999000</v>
+      </c>
+      <c r="J2237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2237" t="n">
+        <v>44.66188388594284</v>
+      </c>
+      <c r="L2237" t="n">
+        <v>17.68193480421451</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>45239.375</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>47457000</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>50278000</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>47401000</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>49400000</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>11141.9610064</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>546010947959.2891</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>1438500</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>47943500</v>
+      </c>
+      <c r="J2238" t="n">
+        <v>1.030379509213971</v>
+      </c>
+      <c r="K2238" t="n">
+        <v>46.01868999896913</v>
+      </c>
+      <c r="L2238" t="n">
+        <v>15.18115238412291</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="2" t="n">
+        <v>45240.375</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>49400000</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>50215000</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>48759000</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>50030000</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>6043.14362454</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>299708542656.056</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>728000</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>50838500</v>
+      </c>
+      <c r="J2239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2239" t="n">
+        <v>46.01868999896913</v>
+      </c>
+      <c r="L2239" t="n">
+        <v>15.18115238412291</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>50030000</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>50100000</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>49230000</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>49629000</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>3533.85638572</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>175349322990.9461</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>435000</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>50758000</v>
+      </c>
+      <c r="J2240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2240" t="n">
+        <v>46.01868999896913</v>
+      </c>
+      <c r="L2240" t="n">
+        <v>15.18115238412291</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="2" t="n">
+        <v>45242.375</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>49629000</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>49730000</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>49141000</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>49351000</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>1515.17682044</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>74842766160.27036</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>294500</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>50064000</v>
+      </c>
+      <c r="J2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2241" t="n">
+        <v>46.01868999896913</v>
+      </c>
+      <c r="L2241" t="n">
+        <v>15.18115238412291</v>
       </c>
     </row>
   </sheetData>
